--- a/documents/A3 Reports/A3 2-27-24.xlsx
+++ b/documents/A3 Reports/A3 2-27-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/619d7d6d1699b471/Employment/Que/Documents/A3 Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{877B3E56-3F63-4523-8824-889E3860A364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{599578AE-7522-4EF8-BE29-8D98F0B5DF31}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{877B3E56-3F63-4523-8824-889E3860A364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63619C73-8603-4AC0-A6EF-118E23595867}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11235" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11235" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A3 Problem Solving - Simple" sheetId="6" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <definedName name="_Toc14516966" localSheetId="1">'A3 Problem Solving - Advanced'!#REF!</definedName>
     <definedName name="_Toc14516966" localSheetId="0">'A3 Problem Solving - Simple'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'A3 Problem Solving - Advanced'!$B$1:$Q$87</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'A3 Problem Solving - Simple'!$B$1:$Q$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'A3 Problem Solving - Simple'!$B$1:$Q$72</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
   <si>
     <t>Continuous Improvement Toolkit . www.citoolkit.com</t>
   </si>
@@ -541,9 +541,6 @@
     <t>Research current devices</t>
   </si>
   <si>
-    <t>Contact engineering salespeople</t>
-  </si>
-  <si>
     <t>Find best websites</t>
   </si>
   <si>
@@ -556,7 +553,16 @@
     <t>1. Find best supplier websites</t>
   </si>
   <si>
-    <t>Produce pendant for Dr. Bimle?</t>
+    <t>Still need to contact the last 3 on Bimle's list and search the websites thoroughly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce horizontally directed tubular structures with a flat side to lay on, and a curve that follows the jaw line (curve concave). Make both ends of the necklace attach to the necklace so that it is less likely to flop around and hit you in the face. Round ones can work, but the pendant should still be in the middle with two opposite attachment points for the necklace. </t>
+  </si>
+  <si>
+    <t>Hi, I am looking for microblowers or miniature air pumps for a smart necklace that emits a scent in a controlled fashion in response to certain criteria. In this order of importance, I am looking for pumps that are as small as possible, quiet, and have low power consumption. Generating high amount of pressure is not necessary. It would be nice if it could tolerate the passage of essential oil vapor through the pump, but it is not mandatory as I can use a separate valve instead. I don't have an exact specificatin for flow rate, but it needs to be enough to blow the scent from a wick on the necklace to the wearer's nose.</t>
+  </si>
+  <si>
+    <t>Contact engineering salespeople - pumps, battery, valves</t>
   </si>
 </sst>
 </file>
@@ -766,7 +772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1464,11 +1470,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1865,6 +1900,12 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1897,6 +1938,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1912,6 +1971,27 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1925,33 +2005,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1972,15 +2025,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2545,6 +2589,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2921,10 +2969,10 @@
     <tabColor indexed="41"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:P79"/>
+  <dimension ref="B2:P80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R77" sqref="R77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2953,7 +3001,7 @@
       <c r="O2" s="100"/>
     </row>
     <row r="3" spans="2:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="146" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2"/>
@@ -2976,16 +3024,16 @@
       <c r="P3" s="101"/>
     </row>
     <row r="4" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="144"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="154"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="82" t="s">
         <v>17</v>
       </c>
@@ -2999,7 +3047,7 @@
       <c r="P4" s="101"/>
     </row>
     <row r="5" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="144"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="2"/>
       <c r="D5" s="43" t="s">
         <v>103</v>
@@ -3009,12 +3057,12 @@
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
       <c r="I5" s="45"/>
-      <c r="J5" s="180">
+      <c r="J5" s="140">
         <v>45349</v>
       </c>
       <c r="K5" s="44"/>
       <c r="L5" s="45"/>
-      <c r="M5" s="181">
+      <c r="M5" s="141">
         <v>45363</v>
       </c>
       <c r="N5" s="44"/>
@@ -3022,35 +3070,35 @@
       <c r="P5" s="101"/>
     </row>
     <row r="6" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="144"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="161" t="s">
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="159"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="162"/>
-      <c r="O6" s="163"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="174"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="178"/>
       <c r="P6" s="101"/>
     </row>
     <row r="7" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="144"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="166"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
       <c r="J7" s="25"/>
       <c r="K7" s="6" t="s">
         <v>102</v>
@@ -3066,13 +3114,13 @@
       <c r="P7" s="101"/>
     </row>
     <row r="8" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="144"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
       <c r="I8" s="169"/>
       <c r="J8" s="19"/>
       <c r="K8" s="6" t="s">
@@ -3089,13 +3137,13 @@
       <c r="P8" s="101"/>
     </row>
     <row r="9" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="144"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
       <c r="I9" s="169"/>
       <c r="J9" s="19"/>
       <c r="K9" s="6"/>
@@ -3110,13 +3158,13 @@
       <c r="P9" s="101"/>
     </row>
     <row r="10" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="144"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
       <c r="I10" s="169"/>
       <c r="J10" s="19"/>
       <c r="K10" s="6"/>
@@ -3131,14 +3179,14 @@
       <c r="P10" s="101"/>
     </row>
     <row r="11" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="144"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="2"/>
       <c r="D11" s="170"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="172"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="171"/>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
@@ -3148,134 +3196,134 @@
       <c r="P11" s="101"/>
     </row>
     <row r="12" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="144"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="148" t="s">
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="149"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="151"/>
       <c r="P12" s="101"/>
     </row>
     <row r="13" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="144"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="164" t="s">
+      <c r="D13" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="165" t="s">
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="165"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="167"/>
       <c r="P13" s="101"/>
     </row>
     <row r="14" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="144"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
       <c r="I14" s="169"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="168"/>
-      <c r="N14" s="168"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
       <c r="O14" s="169"/>
       <c r="P14" s="101"/>
     </row>
     <row r="15" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="144"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
       <c r="I15" s="169"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="168"/>
-      <c r="N15" s="168"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="155"/>
       <c r="O15" s="169"/>
       <c r="P15" s="101"/>
     </row>
     <row r="16" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="144"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
       <c r="I16" s="169"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="168"/>
-      <c r="M16" s="168"/>
-      <c r="N16" s="168"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
       <c r="O16" s="169"/>
       <c r="P16" s="101"/>
     </row>
     <row r="17" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="144"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
       <c r="I17" s="169"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="168"/>
-      <c r="M17" s="168"/>
-      <c r="N17" s="168"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="155"/>
       <c r="O17" s="169"/>
       <c r="P17" s="101"/>
     </row>
     <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="144"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="2"/>
       <c r="D18" s="170"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="172"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="171"/>
       <c r="P18" s="101"/>
     </row>
     <row r="19" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="144"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="2"/>
       <c r="D19" s="104"/>
       <c r="E19" s="104"/>
@@ -3309,34 +3357,34 @@
       <c r="P21" s="101"/>
     </row>
     <row r="22" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="146" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="150" t="s">
+      <c r="D22" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153" t="s">
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="154"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="162"/>
       <c r="P22" s="101"/>
     </row>
     <row r="23" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="144"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="2"/>
       <c r="D23" s="46"/>
       <c r="E23" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
@@ -3344,18 +3392,18 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="56"/>
-      <c r="J23" s="164" t="s">
-        <v>112</v>
-      </c>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="166"/>
+      <c r="J23" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="166"/>
+      <c r="O23" s="167"/>
       <c r="P23" s="101"/>
     </row>
     <row r="24" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="144"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="2"/>
       <c r="D24" s="47"/>
       <c r="E24" s="4"/>
@@ -3363,18 +3411,18 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="54"/>
-      <c r="J24" s="164" t="s">
-        <v>110</v>
-      </c>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="166"/>
+      <c r="J24" s="165" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="166"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="166"/>
+      <c r="O24" s="167"/>
       <c r="P24" s="101"/>
     </row>
     <row r="25" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="144"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="2"/>
       <c r="D25" s="47"/>
       <c r="E25" s="4"/>
@@ -3382,25 +3430,25 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="54"/>
-      <c r="J25" s="167" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="182"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
+      <c r="J25" s="168" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="155"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
       <c r="O25" s="169"/>
       <c r="P25" s="101"/>
     </row>
     <row r="26" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="144"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="2"/>
       <c r="D26" s="47"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="155" t="s">
+      <c r="I26" s="163" t="s">
         <v>105</v>
       </c>
       <c r="J26" s="91"/>
@@ -3412,31 +3460,33 @@
       <c r="P26" s="101"/>
     </row>
     <row r="27" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="144"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="2"/>
       <c r="D27" s="47"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="93"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="168" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="169"/>
       <c r="P27" s="101"/>
     </row>
     <row r="28" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="144"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="2"/>
       <c r="D28" s="47"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="155"/>
+      <c r="I28" s="163"/>
       <c r="J28" s="91"/>
       <c r="K28" s="92"/>
       <c r="L28" s="92"/>
@@ -3446,41 +3496,43 @@
       <c r="P28" s="101"/>
     </row>
     <row r="29" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="144"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="2"/>
       <c r="D29" s="47"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="93"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="168" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="169"/>
       <c r="P29" s="101"/>
     </row>
     <row r="30" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="144"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="2"/>
       <c r="D30" s="47"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="93"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="155"/>
+      <c r="O30" s="169"/>
       <c r="P30" s="101"/>
     </row>
     <row r="31" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="144"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="2"/>
       <c r="D31" s="47"/>
       <c r="E31" s="4"/>
@@ -3488,16 +3540,16 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="53"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="93"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="169"/>
       <c r="P31" s="101"/>
     </row>
     <row r="32" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="144"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="2"/>
       <c r="D32" s="47"/>
       <c r="E32" s="4"/>
@@ -3505,16 +3557,16 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="54"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="93"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="169"/>
       <c r="P32" s="101"/>
     </row>
     <row r="33" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="144"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="2"/>
       <c r="D33" s="47"/>
       <c r="E33" s="4"/>
@@ -3522,16 +3574,16 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="54"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="93"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="169"/>
       <c r="P33" s="101"/>
     </row>
     <row r="34" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="144"/>
+      <c r="B34" s="146"/>
       <c r="C34" s="2"/>
       <c r="D34" s="48"/>
       <c r="E34" s="49"/>
@@ -3541,16 +3593,16 @@
       </c>
       <c r="H34" s="49"/>
       <c r="I34" s="55"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="96"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="171"/>
       <c r="P34" s="101"/>
     </row>
     <row r="35" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="144"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="2"/>
       <c r="D35" s="104"/>
       <c r="E35" s="104"/>
@@ -3587,30 +3639,30 @@
       <c r="P37" s="101"/>
     </row>
     <row r="38" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="144" t="s">
+      <c r="B38" s="146" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="150" t="s">
+      <c r="D38" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="145" t="s">
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="K38" s="145"/>
-      <c r="L38" s="145"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="146"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="147"/>
+      <c r="O38" s="148"/>
       <c r="P38" s="101"/>
     </row>
     <row r="39" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="144"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="2"/>
       <c r="D39" s="58" t="s">
         <v>31</v>
@@ -3633,7 +3685,7 @@
       <c r="P39" s="101"/>
     </row>
     <row r="40" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="144"/>
+      <c r="B40" s="146"/>
       <c r="C40" s="2"/>
       <c r="D40" s="119"/>
       <c r="E40" s="120"/>
@@ -3650,7 +3702,7 @@
       <c r="P40" s="101"/>
     </row>
     <row r="41" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="144"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="2"/>
       <c r="D41" s="134"/>
       <c r="E41" s="127"/>
@@ -3667,7 +3719,7 @@
       <c r="P41" s="101"/>
     </row>
     <row r="42" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="144"/>
+      <c r="B42" s="146"/>
       <c r="C42" s="2"/>
       <c r="D42" s="134"/>
       <c r="E42" s="127"/>
@@ -3684,7 +3736,7 @@
       <c r="P42" s="101"/>
     </row>
     <row r="43" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="144"/>
+      <c r="B43" s="146"/>
       <c r="C43" s="2"/>
       <c r="D43" s="134"/>
       <c r="E43" s="127"/>
@@ -3701,7 +3753,7 @@
       <c r="P43" s="101"/>
     </row>
     <row r="44" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="144"/>
+      <c r="B44" s="146"/>
       <c r="C44" s="2"/>
       <c r="D44" s="134"/>
       <c r="E44" s="127"/>
@@ -3718,7 +3770,7 @@
       <c r="P44" s="101"/>
     </row>
     <row r="45" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="144"/>
+      <c r="B45" s="146"/>
       <c r="C45" s="2"/>
       <c r="D45" s="123"/>
       <c r="E45" s="124"/>
@@ -3735,7 +3787,7 @@
       <c r="P45" s="101"/>
     </row>
     <row r="46" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="144"/>
+      <c r="B46" s="146"/>
       <c r="C46" s="2"/>
       <c r="D46" s="130"/>
       <c r="E46" s="131"/>
@@ -3752,26 +3804,26 @@
       <c r="P46" s="101"/>
     </row>
     <row r="47" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="144"/>
+      <c r="B47" s="146"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="147" t="s">
+      <c r="D47" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="148"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="148"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="148"/>
-      <c r="L47" s="148"/>
-      <c r="M47" s="148"/>
-      <c r="N47" s="148"/>
-      <c r="O47" s="149"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="150"/>
+      <c r="K47" s="150"/>
+      <c r="L47" s="150"/>
+      <c r="M47" s="150"/>
+      <c r="N47" s="150"/>
+      <c r="O47" s="151"/>
       <c r="P47" s="101"/>
     </row>
     <row r="48" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="144"/>
+      <c r="B48" s="146"/>
       <c r="C48" s="2"/>
       <c r="D48" s="58" t="s">
         <v>16</v>
@@ -3798,7 +3850,7 @@
       <c r="P48" s="101"/>
     </row>
     <row r="49" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="144"/>
+      <c r="B49" s="146"/>
       <c r="C49" s="2"/>
       <c r="D49" s="119" t="s">
         <v>107</v>
@@ -3817,26 +3869,26 @@
       <c r="P49" s="101"/>
     </row>
     <row r="50" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="144"/>
+      <c r="B50" s="146"/>
       <c r="C50" s="2"/>
       <c r="D50" s="123" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="125"/>
-      <c r="N50" s="124"/>
-      <c r="O50" s="126"/>
+        <v>115</v>
+      </c>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="128"/>
+      <c r="N50" s="127"/>
+      <c r="O50" s="129"/>
       <c r="P50" s="101"/>
     </row>
     <row r="51" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="144"/>
+      <c r="B51" s="146"/>
       <c r="C51" s="2"/>
       <c r="D51" s="123"/>
       <c r="E51" s="124"/>
@@ -3853,14 +3905,16 @@
       <c r="P51" s="101"/>
     </row>
     <row r="52" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="144"/>
+      <c r="B52" s="146"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="125"/>
+      <c r="D52" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="154"/>
       <c r="J52" s="124"/>
       <c r="K52" s="125"/>
       <c r="L52" s="124"/>
@@ -3870,16 +3924,14 @@
       <c r="P52" s="101"/>
     </row>
     <row r="53" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="144"/>
+      <c r="B53" s="146"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="125"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="155"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="156"/>
       <c r="J53" s="124"/>
       <c r="K53" s="125"/>
       <c r="L53" s="124"/>
@@ -3889,14 +3941,14 @@
       <c r="P53" s="101"/>
     </row>
     <row r="54" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="144"/>
+      <c r="B54" s="146"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="125"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="156"/>
       <c r="J54" s="124"/>
       <c r="K54" s="125"/>
       <c r="L54" s="124"/>
@@ -3906,123 +3958,123 @@
       <c r="P54" s="101"/>
     </row>
     <row r="55" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="144"/>
+      <c r="B55" s="146"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="131"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="131"/>
-      <c r="K55" s="133"/>
-      <c r="L55" s="131"/>
-      <c r="M55" s="133"/>
-      <c r="N55" s="131"/>
-      <c r="O55" s="132"/>
+      <c r="D55" s="155"/>
+      <c r="E55" s="155"/>
+      <c r="F55" s="155"/>
+      <c r="G55" s="155"/>
+      <c r="H55" s="155"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="124"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="124"/>
+      <c r="M55" s="125"/>
+      <c r="N55" s="124"/>
+      <c r="O55" s="126"/>
       <c r="P55" s="101"/>
     </row>
-    <row r="56" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="144"/>
+    <row r="56" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="146"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="102"/>
-      <c r="K56" s="102"/>
-      <c r="L56" s="102"/>
-      <c r="M56" s="103"/>
-      <c r="N56" s="103"/>
-      <c r="O56" s="103"/>
+      <c r="D56" s="157"/>
+      <c r="E56" s="157"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="157"/>
+      <c r="H56" s="157"/>
+      <c r="I56" s="158"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="131"/>
+      <c r="M56" s="133"/>
+      <c r="N56" s="131"/>
+      <c r="O56" s="132"/>
       <c r="P56" s="101"/>
     </row>
-    <row r="57" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="101"/>
-      <c r="K58" s="101"/>
-      <c r="L58" s="101"/>
-      <c r="M58" s="101"/>
-      <c r="N58" s="101"/>
-      <c r="O58" s="101"/>
-      <c r="P58" s="101"/>
-    </row>
-    <row r="59" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="156" t="s">
+    <row r="57" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="146"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="102"/>
+      <c r="K57" s="102"/>
+      <c r="L57" s="102"/>
+      <c r="M57" s="103"/>
+      <c r="N57" s="103"/>
+      <c r="O57" s="103"/>
+      <c r="P57" s="101"/>
+    </row>
+    <row r="58" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="101"/>
+      <c r="L59" s="101"/>
+      <c r="M59" s="101"/>
+      <c r="N59" s="101"/>
+      <c r="O59" s="101"/>
+      <c r="P59" s="101"/>
+    </row>
+    <row r="60" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="141" t="s">
+      <c r="C60" s="2"/>
+      <c r="D60" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="142"/>
-      <c r="F59" s="142"/>
-      <c r="G59" s="142"/>
-      <c r="H59" s="142"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="81" t="s">
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="145"/>
+      <c r="J60" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="80"/>
-      <c r="P59" s="101"/>
-    </row>
-    <row r="60" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="156"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="89"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="58" t="s">
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="101"/>
+    </row>
+    <row r="61" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="164"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="89"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="118"/>
-      <c r="M60" s="135" t="s">
+      <c r="K61" s="10"/>
+      <c r="L61" s="118"/>
+      <c r="M61" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="N60" s="135" t="s">
+      <c r="N61" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="O60" s="57" t="s">
+      <c r="O61" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="P60" s="101"/>
-    </row>
-    <row r="61" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="156"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="93"/>
-      <c r="J61" s="119"/>
-      <c r="K61" s="120"/>
-      <c r="L61" s="121"/>
-      <c r="M61" s="136"/>
-      <c r="N61" s="136"/>
-      <c r="O61" s="122"/>
       <c r="P61" s="101"/>
     </row>
     <row r="62" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="156"/>
+      <c r="B62" s="164"/>
       <c r="C62" s="2"/>
       <c r="D62" s="91"/>
       <c r="E62" s="92"/>
@@ -4030,16 +4082,16 @@
       <c r="G62" s="92"/>
       <c r="H62" s="92"/>
       <c r="I62" s="93"/>
-      <c r="J62" s="123"/>
-      <c r="K62" s="124"/>
-      <c r="L62" s="125"/>
-      <c r="M62" s="137"/>
-      <c r="N62" s="137"/>
-      <c r="O62" s="126"/>
+      <c r="J62" s="119"/>
+      <c r="K62" s="120"/>
+      <c r="L62" s="121"/>
+      <c r="M62" s="136"/>
+      <c r="N62" s="136"/>
+      <c r="O62" s="122"/>
       <c r="P62" s="101"/>
     </row>
     <row r="63" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="156"/>
+      <c r="B63" s="164"/>
       <c r="C63" s="2"/>
       <c r="D63" s="91"/>
       <c r="E63" s="92"/>
@@ -4056,7 +4108,7 @@
       <c r="P63" s="101"/>
     </row>
     <row r="64" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="156"/>
+      <c r="B64" s="164"/>
       <c r="C64" s="2"/>
       <c r="D64" s="91"/>
       <c r="E64" s="92"/>
@@ -4073,7 +4125,7 @@
       <c r="P64" s="101"/>
     </row>
     <row r="65" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="156"/>
+      <c r="B65" s="164"/>
       <c r="C65" s="2"/>
       <c r="D65" s="91"/>
       <c r="E65" s="92"/>
@@ -4090,7 +4142,7 @@
       <c r="P65" s="101"/>
     </row>
     <row r="66" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="156"/>
+      <c r="B66" s="164"/>
       <c r="C66" s="2"/>
       <c r="D66" s="91"/>
       <c r="E66" s="92"/>
@@ -4107,61 +4159,75 @@
       <c r="P66" s="101"/>
     </row>
     <row r="67" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="156"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
-      <c r="G67" s="95"/>
-      <c r="H67" s="95"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="130"/>
-      <c r="K67" s="131"/>
-      <c r="L67" s="133"/>
-      <c r="M67" s="138"/>
-      <c r="N67" s="138"/>
-      <c r="O67" s="132"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="123"/>
+      <c r="K67" s="124"/>
+      <c r="L67" s="125"/>
+      <c r="M67" s="137"/>
+      <c r="N67" s="137"/>
+      <c r="O67" s="126"/>
       <c r="P67" s="101"/>
     </row>
-    <row r="68" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="156"/>
+    <row r="68" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="164"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="105"/>
-      <c r="I68" s="105"/>
-      <c r="J68" s="102"/>
-      <c r="K68" s="102"/>
-      <c r="L68" s="102"/>
-      <c r="M68" s="103"/>
-      <c r="N68" s="103"/>
-      <c r="O68" s="103"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="130"/>
+      <c r="K68" s="131"/>
+      <c r="L68" s="133"/>
+      <c r="M68" s="138"/>
+      <c r="N68" s="138"/>
+      <c r="O68" s="132"/>
       <c r="P68" s="101"/>
     </row>
-    <row r="69" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D69" s="14"/>
-    </row>
-    <row r="70" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="D70" s="140"/>
-      <c r="E70" s="140"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="140"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="140"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="140"/>
-      <c r="L70" s="140"/>
-      <c r="M70" s="140"/>
-      <c r="N70" s="140"/>
-      <c r="O70" s="140"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D72" s="30"/>
+    <row r="69" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="164"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="104"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="102"/>
+      <c r="K69" s="102"/>
+      <c r="L69" s="102"/>
+      <c r="M69" s="103"/>
+      <c r="N69" s="103"/>
+      <c r="O69" s="103"/>
+      <c r="P69" s="101"/>
+    </row>
+    <row r="70" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="D71" s="142"/>
+      <c r="E71" s="142"/>
+      <c r="F71" s="142"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="142"/>
+      <c r="I71" s="142"/>
+      <c r="J71" s="142"/>
+      <c r="K71" s="142"/>
+      <c r="L71" s="142"/>
+      <c r="M71" s="142"/>
+      <c r="N71" s="142"/>
+      <c r="O71" s="142"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D73" s="31"/>
+      <c r="D73" s="30"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D74" s="31"/>
@@ -4181,8 +4247,11 @@
     <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D79" s="31"/>
     </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D80" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
     <mergeCell ref="B3:B19"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="D6:I6"/>
@@ -4196,16 +4265,19 @@
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="J22:O22"/>
     <mergeCell ref="I26:I30"/>
-    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="B60:B69"/>
     <mergeCell ref="J23:O23"/>
     <mergeCell ref="J24:O24"/>
     <mergeCell ref="J25:O25"/>
-    <mergeCell ref="D70:O70"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="B38:B56"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="J29:O34"/>
+    <mergeCell ref="D71:O71"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="B38:B57"/>
     <mergeCell ref="J38:O38"/>
     <mergeCell ref="D47:O47"/>
     <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D52:I56"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.4" bottom="0.2" header="0.1" footer="0.1"/>
@@ -4263,7 +4335,7 @@
       <c r="O2" s="100"/>
     </row>
     <row r="3" spans="2:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="146" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2"/>
@@ -4286,28 +4358,28 @@
       <c r="P3" s="101"/>
     </row>
     <row r="4" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="144"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="157" t="s">
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="154"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="162"/>
       <c r="P4" s="101"/>
     </row>
     <row r="5" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="144"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="2"/>
       <c r="D5" s="43"/>
       <c r="E5" s="44"/>
@@ -4324,7 +4396,7 @@
       <c r="P5" s="101"/>
     </row>
     <row r="6" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="144"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="2"/>
       <c r="D6" s="32" t="s">
         <v>39</v>
@@ -4349,7 +4421,7 @@
       <c r="P6" s="101"/>
     </row>
     <row r="7" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="144"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="2"/>
       <c r="D7" s="43"/>
       <c r="E7" s="44"/>
@@ -4366,35 +4438,35 @@
       <c r="P7" s="101"/>
     </row>
     <row r="8" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="144"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="158" t="s">
+      <c r="D8" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="179" t="s">
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="159"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="163"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="178"/>
       <c r="P8" s="101"/>
     </row>
     <row r="9" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="144"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="166"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="167"/>
       <c r="J9" s="111"/>
       <c r="K9" s="6"/>
       <c r="L9" s="85" t="s">
@@ -4408,13 +4480,13 @@
       <c r="P9" s="101"/>
     </row>
     <row r="10" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="144"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
       <c r="I10" s="169"/>
       <c r="J10" s="112"/>
       <c r="K10" s="6"/>
@@ -4429,13 +4501,13 @@
       <c r="P10" s="101"/>
     </row>
     <row r="11" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="144"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
       <c r="I11" s="169"/>
       <c r="J11" s="112"/>
       <c r="K11" s="6"/>
@@ -4450,13 +4522,13 @@
       <c r="P11" s="101"/>
     </row>
     <row r="12" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="144"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
       <c r="I12" s="169"/>
       <c r="J12" s="112"/>
       <c r="K12" s="6"/>
@@ -4471,14 +4543,14 @@
       <c r="P12" s="101"/>
     </row>
     <row r="13" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="144"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="2"/>
       <c r="D13" s="170"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="172"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="171"/>
       <c r="J13" s="113"/>
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
@@ -4488,115 +4560,115 @@
       <c r="P13" s="101"/>
     </row>
     <row r="14" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="144"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="147" t="s">
+      <c r="D14" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="147" t="s">
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="149"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="151"/>
       <c r="P14" s="101"/>
     </row>
     <row r="15" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="144"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="166"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="167"/>
       <c r="P15" s="101"/>
     </row>
     <row r="16" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="144"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
       <c r="I16" s="169"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="168"/>
-      <c r="M16" s="168"/>
-      <c r="N16" s="168"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
       <c r="O16" s="169"/>
       <c r="P16" s="101"/>
     </row>
     <row r="17" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="144"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
       <c r="I17" s="169"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="168"/>
-      <c r="M17" s="168"/>
-      <c r="N17" s="168"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="155"/>
       <c r="O17" s="169"/>
       <c r="P17" s="101"/>
     </row>
     <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="144"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="2"/>
       <c r="D18" s="170"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="172"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="171"/>
       <c r="J18" s="170"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="172"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="171"/>
       <c r="P18" s="101"/>
     </row>
     <row r="19" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="144"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="141" t="s">
+      <c r="D19" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="143"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="145"/>
       <c r="P19" s="101"/>
     </row>
     <row r="20" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="144"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="2"/>
       <c r="D20" s="34"/>
       <c r="E20" s="17"/>
@@ -4613,7 +4685,7 @@
       <c r="P20" s="101"/>
     </row>
     <row r="21" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="144"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="2"/>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
@@ -4630,7 +4702,7 @@
       <c r="P21" s="101"/>
     </row>
     <row r="22" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="144"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="2"/>
       <c r="D22" s="104"/>
       <c r="E22" s="104"/>
@@ -4674,30 +4746,30 @@
       <c r="P25" s="101"/>
     </row>
     <row r="26" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="146" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="150" t="s">
+      <c r="D26" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="176" t="s">
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="182" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="177"/>
-      <c r="N26" s="177"/>
-      <c r="O26" s="178"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="184"/>
       <c r="P26" s="101"/>
     </row>
     <row r="27" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="144"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="2"/>
       <c r="D27" s="46"/>
       <c r="E27" s="3"/>
@@ -4716,7 +4788,7 @@
       <c r="P27" s="101"/>
     </row>
     <row r="28" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="144"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="2"/>
       <c r="D28" s="47"/>
       <c r="E28" s="4"/>
@@ -4735,7 +4807,7 @@
       <c r="P28" s="101"/>
     </row>
     <row r="29" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="144"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="2"/>
       <c r="D29" s="47"/>
       <c r="E29" s="4"/>
@@ -4754,14 +4826,14 @@
       <c r="P29" s="101"/>
     </row>
     <row r="30" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="144"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="2"/>
       <c r="D30" s="47"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="155" t="s">
+      <c r="I30" s="163" t="s">
         <v>9</v>
       </c>
       <c r="J30" s="114" t="s">
@@ -4775,14 +4847,14 @@
       <c r="P30" s="101"/>
     </row>
     <row r="31" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="144"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="2"/>
       <c r="D31" s="47"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="155"/>
+      <c r="I31" s="163"/>
       <c r="J31" s="115" t="s">
         <v>26</v>
       </c>
@@ -4794,60 +4866,60 @@
       <c r="P31" s="101"/>
     </row>
     <row r="32" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="144"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="2"/>
       <c r="D32" s="47"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="157" t="s">
+      <c r="I32" s="163"/>
+      <c r="J32" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="154"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="162"/>
       <c r="P32" s="101"/>
     </row>
     <row r="33" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="144"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="2"/>
       <c r="D33" s="47"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="165"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="166"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="166"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="167"/>
       <c r="P33" s="101"/>
     </row>
     <row r="34" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="144"/>
+      <c r="B34" s="146"/>
       <c r="C34" s="2"/>
       <c r="D34" s="47"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="168"/>
-      <c r="L34" s="168"/>
-      <c r="M34" s="168"/>
-      <c r="N34" s="168"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="168"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="155"/>
       <c r="O34" s="169"/>
       <c r="P34" s="101"/>
     </row>
     <row r="35" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="144"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="2"/>
       <c r="D35" s="47"/>
       <c r="E35" s="4"/>
@@ -4855,16 +4927,16 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="53"/>
-      <c r="J35" s="167"/>
-      <c r="K35" s="168"/>
-      <c r="L35" s="168"/>
-      <c r="M35" s="168"/>
-      <c r="N35" s="168"/>
+      <c r="J35" s="168"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
       <c r="O35" s="169"/>
       <c r="P35" s="101"/>
     </row>
     <row r="36" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="144"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="2"/>
       <c r="D36" s="47"/>
       <c r="E36" s="4"/>
@@ -4872,16 +4944,16 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="54"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="168"/>
-      <c r="L36" s="168"/>
-      <c r="M36" s="168"/>
-      <c r="N36" s="168"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
       <c r="O36" s="169"/>
       <c r="P36" s="101"/>
     </row>
     <row r="37" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="144"/>
+      <c r="B37" s="146"/>
       <c r="C37" s="2"/>
       <c r="D37" s="47"/>
       <c r="E37" s="4"/>
@@ -4890,15 +4962,15 @@
       <c r="H37" s="4"/>
       <c r="I37" s="54"/>
       <c r="J37" s="170"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="171"/>
-      <c r="M37" s="171"/>
-      <c r="N37" s="171"/>
-      <c r="O37" s="172"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="171"/>
       <c r="P37" s="101"/>
     </row>
     <row r="38" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="144"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="2"/>
       <c r="D38" s="48"/>
       <c r="E38" s="49"/>
@@ -4917,7 +4989,7 @@
       <c r="P38" s="101"/>
     </row>
     <row r="39" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="144"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="2"/>
       <c r="D39" s="104"/>
       <c r="E39" s="104"/>
@@ -4965,7 +5037,7 @@
       <c r="P42" s="101"/>
     </row>
     <row r="43" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="144" t="s">
+      <c r="B43" s="146" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="2"/>
@@ -4977,27 +5049,27 @@
       </c>
       <c r="H43" s="65"/>
       <c r="I43" s="66"/>
-      <c r="J43" s="150" t="s">
+      <c r="J43" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="145"/>
-      <c r="N43" s="145"/>
-      <c r="O43" s="146"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="147"/>
+      <c r="M43" s="147"/>
+      <c r="N43" s="147"/>
+      <c r="O43" s="148"/>
       <c r="P43" s="101"/>
     </row>
     <row r="44" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="144"/>
+      <c r="B44" s="146"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="147" t="s">
+      <c r="D44" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="149"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="151"/>
       <c r="J44" s="58" t="s">
         <v>31</v>
       </c>
@@ -5017,14 +5089,14 @@
       <c r="P44" s="101"/>
     </row>
     <row r="45" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="144"/>
+      <c r="B45" s="146"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="165"/>
-      <c r="F45" s="165"/>
-      <c r="G45" s="165"/>
-      <c r="H45" s="165"/>
-      <c r="I45" s="166"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="166"/>
+      <c r="F45" s="166"/>
+      <c r="G45" s="166"/>
+      <c r="H45" s="166"/>
+      <c r="I45" s="167"/>
       <c r="J45" s="59"/>
       <c r="K45" s="13"/>
       <c r="L45" s="16"/>
@@ -5034,13 +5106,13 @@
       <c r="P45" s="101"/>
     </row>
     <row r="46" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="144"/>
+      <c r="B46" s="146"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="155"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
       <c r="I46" s="169"/>
       <c r="J46" s="59"/>
       <c r="K46" s="13"/>
@@ -5051,14 +5123,14 @@
       <c r="P46" s="101"/>
     </row>
     <row r="47" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="144"/>
+      <c r="B47" s="146"/>
       <c r="C47" s="2"/>
       <c r="D47" s="170"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="172"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="171"/>
       <c r="J47" s="59"/>
       <c r="K47" s="13"/>
       <c r="L47" s="16"/>
@@ -5068,16 +5140,16 @@
       <c r="P47" s="101"/>
     </row>
     <row r="48" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="144"/>
+      <c r="B48" s="146"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="147" t="s">
+      <c r="D48" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="149"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="151"/>
       <c r="J48" s="59"/>
       <c r="K48" s="13"/>
       <c r="L48" s="16"/>
@@ -5087,14 +5159,14 @@
       <c r="P48" s="101"/>
     </row>
     <row r="49" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="144"/>
+      <c r="B49" s="146"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="165"/>
-      <c r="F49" s="165"/>
-      <c r="G49" s="165"/>
-      <c r="H49" s="165"/>
-      <c r="I49" s="166"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="166"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="166"/>
+      <c r="H49" s="166"/>
+      <c r="I49" s="167"/>
       <c r="J49" s="59"/>
       <c r="K49" s="13"/>
       <c r="L49" s="16"/>
@@ -5104,13 +5176,13 @@
       <c r="P49" s="101"/>
     </row>
     <row r="50" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="144"/>
+      <c r="B50" s="146"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="168"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="168"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="155"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
       <c r="I50" s="169"/>
       <c r="J50" s="59"/>
       <c r="K50" s="13"/>
@@ -5121,14 +5193,14 @@
       <c r="P50" s="101"/>
     </row>
     <row r="51" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="144"/>
+      <c r="B51" s="146"/>
       <c r="C51" s="2"/>
       <c r="D51" s="170"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="171"/>
-      <c r="H51" s="171"/>
-      <c r="I51" s="172"/>
+      <c r="E51" s="157"/>
+      <c r="F51" s="157"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="171"/>
       <c r="J51" s="36"/>
       <c r="K51" s="60"/>
       <c r="L51" s="61"/>
@@ -5138,26 +5210,26 @@
       <c r="P51" s="101"/>
     </row>
     <row r="52" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="144"/>
+      <c r="B52" s="146"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="157" t="s">
+      <c r="D52" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="153"/>
-      <c r="L52" s="153"/>
-      <c r="M52" s="153"/>
-      <c r="N52" s="153"/>
-      <c r="O52" s="154"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="161"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="161"/>
+      <c r="K52" s="161"/>
+      <c r="L52" s="161"/>
+      <c r="M52" s="161"/>
+      <c r="N52" s="161"/>
+      <c r="O52" s="162"/>
       <c r="P52" s="101"/>
     </row>
     <row r="53" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="144"/>
+      <c r="B53" s="146"/>
       <c r="C53" s="2"/>
       <c r="D53" s="58" t="s">
         <v>13</v>
@@ -5182,7 +5254,7 @@
       <c r="P53" s="101"/>
     </row>
     <row r="54" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="144"/>
+      <c r="B54" s="146"/>
       <c r="C54" s="2"/>
       <c r="D54" s="59"/>
       <c r="E54" s="5"/>
@@ -5199,7 +5271,7 @@
       <c r="P54" s="101"/>
     </row>
     <row r="55" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="144"/>
+      <c r="B55" s="146"/>
       <c r="C55" s="2"/>
       <c r="D55" s="59"/>
       <c r="E55" s="5"/>
@@ -5216,7 +5288,7 @@
       <c r="P55" s="101"/>
     </row>
     <row r="56" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="144"/>
+      <c r="B56" s="146"/>
       <c r="C56" s="2"/>
       <c r="D56" s="36"/>
       <c r="E56" s="38"/>
@@ -5233,26 +5305,26 @@
       <c r="P56" s="101"/>
     </row>
     <row r="57" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="144"/>
+      <c r="B57" s="146"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="157" t="s">
+      <c r="D57" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
-      <c r="I57" s="153"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="153"/>
-      <c r="L57" s="153"/>
-      <c r="M57" s="153"/>
-      <c r="N57" s="153"/>
-      <c r="O57" s="154"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
+      <c r="I57" s="161"/>
+      <c r="J57" s="161"/>
+      <c r="K57" s="161"/>
+      <c r="L57" s="161"/>
+      <c r="M57" s="161"/>
+      <c r="N57" s="161"/>
+      <c r="O57" s="162"/>
       <c r="P57" s="101"/>
     </row>
     <row r="58" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="144"/>
+      <c r="B58" s="146"/>
       <c r="C58" s="2"/>
       <c r="D58" s="58" t="s">
         <v>16</v>
@@ -5279,7 +5351,7 @@
       <c r="P58" s="101"/>
     </row>
     <row r="59" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="144"/>
+      <c r="B59" s="146"/>
       <c r="C59" s="2"/>
       <c r="D59" s="59"/>
       <c r="E59" s="5"/>
@@ -5296,7 +5368,7 @@
       <c r="P59" s="101"/>
     </row>
     <row r="60" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="144"/>
+      <c r="B60" s="146"/>
       <c r="C60" s="2"/>
       <c r="D60" s="59"/>
       <c r="E60" s="5"/>
@@ -5313,7 +5385,7 @@
       <c r="P60" s="101"/>
     </row>
     <row r="61" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="144"/>
+      <c r="B61" s="146"/>
       <c r="C61" s="2"/>
       <c r="D61" s="59"/>
       <c r="E61" s="5"/>
@@ -5330,7 +5402,7 @@
       <c r="P61" s="101"/>
     </row>
     <row r="62" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="144"/>
+      <c r="B62" s="146"/>
       <c r="C62" s="2"/>
       <c r="D62" s="59"/>
       <c r="E62" s="5"/>
@@ -5347,7 +5419,7 @@
       <c r="P62" s="101"/>
     </row>
     <row r="63" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="144"/>
+      <c r="B63" s="146"/>
       <c r="C63" s="2"/>
       <c r="D63" s="36"/>
       <c r="E63" s="38"/>
@@ -5364,7 +5436,7 @@
       <c r="P63" s="101"/>
     </row>
     <row r="64" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="144"/>
+      <c r="B64" s="146"/>
       <c r="C64" s="2"/>
       <c r="D64" s="104"/>
       <c r="E64" s="104"/>
@@ -5408,7 +5480,7 @@
       <c r="P67" s="101"/>
     </row>
     <row r="68" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="156" t="s">
+      <c r="B68" s="164" t="s">
         <v>20</v>
       </c>
       <c r="C68" s="2"/>
@@ -5422,18 +5494,18 @@
         <v>34</v>
       </c>
       <c r="I68" s="73"/>
-      <c r="J68" s="150" t="s">
+      <c r="J68" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="K68" s="145"/>
-      <c r="L68" s="145"/>
-      <c r="M68" s="145"/>
-      <c r="N68" s="145"/>
-      <c r="O68" s="146"/>
+      <c r="K68" s="147"/>
+      <c r="L68" s="147"/>
+      <c r="M68" s="147"/>
+      <c r="N68" s="147"/>
+      <c r="O68" s="148"/>
       <c r="P68" s="101"/>
     </row>
     <row r="69" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="156"/>
+      <c r="B69" s="164"/>
       <c r="C69" s="2"/>
       <c r="D69" s="74"/>
       <c r="E69" s="75" t="s">
@@ -5464,16 +5536,16 @@
       <c r="P69" s="101"/>
     </row>
     <row r="70" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="156"/>
+      <c r="B70" s="164"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="173" t="s">
+      <c r="D70" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="E70" s="174"/>
-      <c r="F70" s="174"/>
-      <c r="G70" s="174"/>
-      <c r="H70" s="174"/>
-      <c r="I70" s="175"/>
+      <c r="E70" s="180"/>
+      <c r="F70" s="180"/>
+      <c r="G70" s="180"/>
+      <c r="H70" s="180"/>
+      <c r="I70" s="181"/>
       <c r="J70" s="59"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
@@ -5483,14 +5555,14 @@
       <c r="P70" s="101"/>
     </row>
     <row r="71" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="156"/>
+      <c r="B71" s="164"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="164"/>
-      <c r="E71" s="165"/>
-      <c r="F71" s="165"/>
-      <c r="G71" s="165"/>
-      <c r="H71" s="165"/>
-      <c r="I71" s="166"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="166"/>
+      <c r="F71" s="166"/>
+      <c r="G71" s="166"/>
+      <c r="H71" s="166"/>
+      <c r="I71" s="167"/>
       <c r="J71" s="59"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
@@ -5500,13 +5572,13 @@
       <c r="P71" s="101"/>
     </row>
     <row r="72" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="156"/>
+      <c r="B72" s="164"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="167"/>
-      <c r="E72" s="168"/>
-      <c r="F72" s="168"/>
-      <c r="G72" s="168"/>
-      <c r="H72" s="168"/>
+      <c r="D72" s="168"/>
+      <c r="E72" s="155"/>
+      <c r="F72" s="155"/>
+      <c r="G72" s="155"/>
+      <c r="H72" s="155"/>
       <c r="I72" s="169"/>
       <c r="J72" s="59"/>
       <c r="K72" s="8"/>
@@ -5517,14 +5589,14 @@
       <c r="P72" s="101"/>
     </row>
     <row r="73" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="156"/>
+      <c r="B73" s="164"/>
       <c r="C73" s="2"/>
       <c r="D73" s="170"/>
-      <c r="E73" s="171"/>
-      <c r="F73" s="171"/>
-      <c r="G73" s="171"/>
-      <c r="H73" s="171"/>
-      <c r="I73" s="172"/>
+      <c r="E73" s="157"/>
+      <c r="F73" s="157"/>
+      <c r="G73" s="157"/>
+      <c r="H73" s="157"/>
+      <c r="I73" s="171"/>
       <c r="J73" s="36"/>
       <c r="K73" s="37"/>
       <c r="L73" s="37"/>
@@ -5534,7 +5606,7 @@
       <c r="P73" s="101"/>
     </row>
     <row r="74" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="156"/>
+      <c r="B74" s="164"/>
       <c r="C74" s="2"/>
       <c r="D74" s="71" t="s">
         <v>76</v>
@@ -5555,14 +5627,14 @@
       <c r="P74" s="101"/>
     </row>
     <row r="75" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="156"/>
+      <c r="B75" s="164"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="164"/>
-      <c r="E75" s="165"/>
-      <c r="F75" s="165"/>
-      <c r="G75" s="165"/>
-      <c r="H75" s="165"/>
-      <c r="I75" s="166"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="166"/>
+      <c r="F75" s="166"/>
+      <c r="G75" s="166"/>
+      <c r="H75" s="166"/>
+      <c r="I75" s="167"/>
       <c r="J75" s="58" t="s">
         <v>32</v>
       </c>
@@ -5580,14 +5652,14 @@
       <c r="P75" s="101"/>
     </row>
     <row r="76" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="156"/>
+      <c r="B76" s="164"/>
       <c r="C76" s="2"/>
       <c r="D76" s="170"/>
-      <c r="E76" s="171"/>
-      <c r="F76" s="171"/>
-      <c r="G76" s="171"/>
-      <c r="H76" s="171"/>
-      <c r="I76" s="172"/>
+      <c r="E76" s="157"/>
+      <c r="F76" s="157"/>
+      <c r="G76" s="157"/>
+      <c r="H76" s="157"/>
+      <c r="I76" s="171"/>
       <c r="J76" s="34"/>
       <c r="K76" s="7"/>
       <c r="L76" s="8"/>
@@ -5597,7 +5669,7 @@
       <c r="P76" s="101"/>
     </row>
     <row r="77" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="156"/>
+      <c r="B77" s="164"/>
       <c r="C77" s="2"/>
       <c r="D77" s="71" t="s">
         <v>57</v>
@@ -5616,7 +5688,7 @@
       <c r="P77" s="101"/>
     </row>
     <row r="78" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="156"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="2"/>
       <c r="D78" s="34"/>
       <c r="E78" s="7"/>
@@ -5633,7 +5705,7 @@
       <c r="P78" s="101"/>
     </row>
     <row r="79" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="156"/>
+      <c r="B79" s="164"/>
       <c r="C79" s="2"/>
       <c r="D79" s="34"/>
       <c r="E79" s="7"/>
@@ -5650,7 +5722,7 @@
       <c r="P79" s="101"/>
     </row>
     <row r="80" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="156"/>
+      <c r="B80" s="164"/>
       <c r="C80" s="2"/>
       <c r="D80" s="36"/>
       <c r="E80" s="38"/>
@@ -5667,7 +5739,7 @@
       <c r="P80" s="101"/>
     </row>
     <row r="81" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="156"/>
+      <c r="B81" s="164"/>
       <c r="C81" s="2"/>
       <c r="D81" s="104"/>
       <c r="E81" s="104"/>
@@ -5719,20 +5791,20 @@
     </row>
     <row r="85" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="D86" s="140" t="s">
+      <c r="D86" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="E86" s="140"/>
-      <c r="F86" s="140"/>
-      <c r="G86" s="140"/>
-      <c r="H86" s="140"/>
-      <c r="I86" s="140"/>
-      <c r="J86" s="140"/>
-      <c r="K86" s="140"/>
-      <c r="L86" s="140"/>
-      <c r="M86" s="140"/>
-      <c r="N86" s="140"/>
-      <c r="O86" s="140"/>
+      <c r="E86" s="142"/>
+      <c r="F86" s="142"/>
+      <c r="G86" s="142"/>
+      <c r="H86" s="142"/>
+      <c r="I86" s="142"/>
+      <c r="J86" s="142"/>
+      <c r="K86" s="142"/>
+      <c r="L86" s="142"/>
+      <c r="M86" s="142"/>
+      <c r="N86" s="142"/>
+      <c r="O86" s="142"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D88" s="30" t="s">

--- a/documents/A3 Reports/A3 2-27-24.xlsx
+++ b/documents/A3 Reports/A3 2-27-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/619d7d6d1699b471/Employment/Que/Documents/A3 Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{877B3E56-3F63-4523-8824-889E3860A364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63619C73-8603-4AC0-A6EF-118E23595867}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{877B3E56-3F63-4523-8824-889E3860A364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{249EAA4F-E52D-4F53-B7B6-BD652B744430}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11235" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="840" windowWidth="19470" windowHeight="13875" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A3 Problem Solving - Simple" sheetId="6" r:id="rId1"/>
@@ -20,14 +20,27 @@
     <definedName name="_Toc14516966" localSheetId="1">'A3 Problem Solving - Advanced'!#REF!</definedName>
     <definedName name="_Toc14516966" localSheetId="0">'A3 Problem Solving - Simple'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'A3 Problem Solving - Advanced'!$B$1:$Q$87</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'A3 Problem Solving - Simple'!$B$1:$Q$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'A3 Problem Solving - Simple'!$B$1:$Q$74</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="135">
   <si>
     <t>Continuous Improvement Toolkit . www.citoolkit.com</t>
   </si>
@@ -485,12 +498,6 @@
     <t>Cause and Effect and 5 Whys</t>
   </si>
   <si>
-    <t>Corrective Actions and Quick Wins</t>
-  </si>
-  <si>
-    <t>Team members</t>
-  </si>
-  <si>
     <t>Implementation Plan</t>
   </si>
   <si>
@@ -564,12 +571,75 @@
   <si>
     <t>Contact engineering salespeople - pumps, battery, valves</t>
   </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Diaphragm Pumps | KNF</t>
+  </si>
+  <si>
+    <t>Gas Pumps (schwarzer.com)</t>
+  </si>
+  <si>
+    <t>ask about power consumption, design choices, technical requirements, etc. with PCB designer</t>
+  </si>
+  <si>
+    <t>CurieJet</t>
+  </si>
+  <si>
+    <t>Contacted</t>
+  </si>
+  <si>
+    <t>pumps are too big</t>
+  </si>
+  <si>
+    <t>contact 9-5 - left message</t>
+  </si>
+  <si>
+    <t>Takasago</t>
+  </si>
+  <si>
+    <t>email response</t>
+  </si>
+  <si>
+    <t>Contacted Companies</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>None yet</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>call/email response</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://mail.google.com/mail/u/0/#inbox/FMfcgzGxRxDZPRFztpSmjqpnztwrMtDv</t>
+  </si>
+  <si>
+    <t>respond with fan/pump flowrate and hole size</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -721,6 +791,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -772,7 +855,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1499,11 +1582,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1906,6 +2012,18 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1955,6 +2073,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -2026,8 +2159,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2088,7 +2225,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="584835" y="3962400"/>
-          <a:ext cx="3472815" cy="1809750"/>
+          <a:ext cx="4711065" cy="1809750"/>
           <a:chOff x="355" y="344"/>
           <a:chExt cx="584" cy="359"/>
         </a:xfrm>
@@ -2589,10 +2726,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2969,10 +3102,10 @@
     <tabColor indexed="41"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:P80"/>
+  <dimension ref="B2:Q82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2980,7 +3113,10 @@
     <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="0.85546875" style="1" customWidth="1"/>
-    <col min="4" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="15" width="11.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="0.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="1.7109375" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="1"/>
@@ -3001,7 +3137,7 @@
       <c r="O2" s="100"/>
     </row>
     <row r="3" spans="2:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="150" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2"/>
@@ -3024,16 +3160,16 @@
       <c r="P3" s="101"/>
     </row>
     <row r="4" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="146"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="172" t="s">
+      <c r="D4" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="162"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="171"/>
       <c r="J4" s="82" t="s">
         <v>17</v>
       </c>
@@ -3047,10 +3183,10 @@
       <c r="P4" s="101"/>
     </row>
     <row r="5" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="146"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="2"/>
       <c r="D5" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
@@ -3070,38 +3206,38 @@
       <c r="P5" s="101"/>
     </row>
     <row r="6" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="146"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="173" t="s">
+      <c r="D6" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="176" t="s">
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="174"/>
-      <c r="L6" s="177"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="178"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="186"/>
+      <c r="O6" s="187"/>
       <c r="P6" s="101"/>
     </row>
     <row r="7" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="176"/>
       <c r="J7" s="25"/>
       <c r="K7" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L7" s="85" t="s">
         <v>2</v>
@@ -3114,17 +3250,17 @@
       <c r="P7" s="101"/>
     </row>
     <row r="8" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="146"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="169"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="178"/>
       <c r="J8" s="19"/>
       <c r="K8" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L8" s="86" t="s">
         <v>4</v>
@@ -3137,14 +3273,14 @@
       <c r="P8" s="101"/>
     </row>
     <row r="9" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="146"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="169"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="178"/>
       <c r="J9" s="19"/>
       <c r="K9" s="6"/>
       <c r="L9" s="86" t="s">
@@ -3158,14 +3294,14 @@
       <c r="P9" s="101"/>
     </row>
     <row r="10" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="146"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="169"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="178"/>
       <c r="J10" s="19"/>
       <c r="K10" s="6"/>
       <c r="L10" s="86" t="s">
@@ -3179,14 +3315,14 @@
       <c r="P10" s="101"/>
     </row>
     <row r="11" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="146"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="171"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="180"/>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
@@ -3196,134 +3332,134 @@
       <c r="P11" s="101"/>
     </row>
     <row r="12" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="146"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="150" t="s">
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="151"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="155"/>
       <c r="P12" s="101"/>
     </row>
     <row r="13" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="146"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="165" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="166" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="167"/>
+      <c r="D13" s="174" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="175" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="176"/>
       <c r="P13" s="101"/>
     </row>
     <row r="14" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="146"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="169"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="178"/>
       <c r="P14" s="101"/>
     </row>
     <row r="15" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="146"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="155"/>
-      <c r="N15" s="155"/>
-      <c r="O15" s="169"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="178"/>
       <c r="P15" s="101"/>
     </row>
     <row r="16" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="146"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="155"/>
-      <c r="O16" s="169"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="178"/>
       <c r="P16" s="101"/>
     </row>
     <row r="17" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="146"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="155"/>
-      <c r="O17" s="169"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="178"/>
       <c r="P17" s="101"/>
     </row>
     <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="146"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="171"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="180"/>
       <c r="P18" s="101"/>
     </row>
     <row r="19" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="146"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="2"/>
       <c r="D19" s="104"/>
       <c r="E19" s="104"/>
@@ -3357,53 +3493,53 @@
       <c r="P21" s="101"/>
     </row>
     <row r="22" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="150" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="152" t="s">
+      <c r="D22" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="161" t="s">
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="162"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="171"/>
       <c r="P22" s="101"/>
     </row>
     <row r="23" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="146"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="2"/>
       <c r="D23" s="46"/>
       <c r="E23" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="56"/>
-      <c r="J23" s="165" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="167"/>
+      <c r="J23" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="176"/>
       <c r="P23" s="101"/>
     </row>
     <row r="24" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="146"/>
+      <c r="B24" s="150"/>
       <c r="C24" s="2"/>
       <c r="D24" s="47"/>
       <c r="E24" s="4"/>
@@ -3411,18 +3547,18 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="54"/>
-      <c r="J24" s="165" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
-      <c r="M24" s="166"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="167"/>
+      <c r="J24" s="174" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="176"/>
       <c r="P24" s="101"/>
     </row>
     <row r="25" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="146"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="2"/>
       <c r="D25" s="47"/>
       <c r="E25" s="4"/>
@@ -3430,26 +3566,26 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="54"/>
-      <c r="J25" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="169"/>
+      <c r="J25" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="159"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="178"/>
       <c r="P25" s="101"/>
     </row>
     <row r="26" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="146"/>
+      <c r="B26" s="150"/>
       <c r="C26" s="2"/>
       <c r="D26" s="47"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="163" t="s">
-        <v>105</v>
+      <c r="I26" s="172" t="s">
+        <v>103</v>
       </c>
       <c r="J26" s="91"/>
       <c r="K26" s="92"/>
@@ -3460,33 +3596,33 @@
       <c r="P26" s="101"/>
     </row>
     <row r="27" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="146"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="2"/>
       <c r="D27" s="47"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="168" t="s">
-        <v>112</v>
-      </c>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="169"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="177" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="159"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="178"/>
       <c r="P27" s="101"/>
     </row>
     <row r="28" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="146"/>
+      <c r="B28" s="150"/>
       <c r="C28" s="2"/>
       <c r="D28" s="47"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="163"/>
+      <c r="I28" s="172"/>
       <c r="J28" s="91"/>
       <c r="K28" s="92"/>
       <c r="L28" s="92"/>
@@ -3496,43 +3632,43 @@
       <c r="P28" s="101"/>
     </row>
     <row r="29" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="146"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="2"/>
       <c r="D29" s="47"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="168" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="169"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="177" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="178"/>
       <c r="P29" s="101"/>
     </row>
     <row r="30" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="146"/>
+      <c r="B30" s="150"/>
       <c r="C30" s="2"/>
       <c r="D30" s="47"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
-      <c r="N30" s="155"/>
-      <c r="O30" s="169"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="178"/>
       <c r="P30" s="101"/>
     </row>
     <row r="31" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="146"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="2"/>
       <c r="D31" s="47"/>
       <c r="E31" s="4"/>
@@ -3540,16 +3676,16 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="53"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="169"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="178"/>
       <c r="P31" s="101"/>
     </row>
     <row r="32" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="146"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="2"/>
       <c r="D32" s="47"/>
       <c r="E32" s="4"/>
@@ -3557,16 +3693,16 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="54"/>
-      <c r="J32" s="168"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="169"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="178"/>
       <c r="P32" s="101"/>
     </row>
-    <row r="33" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="146"/>
+    <row r="33" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="150"/>
       <c r="C33" s="2"/>
       <c r="D33" s="47"/>
       <c r="E33" s="4"/>
@@ -3574,35 +3710,38 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="54"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="155"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="169"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="159"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="159"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="178"/>
       <c r="P33" s="101"/>
     </row>
-    <row r="34" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="146"/>
+    <row r="34" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="150"/>
       <c r="C34" s="2"/>
       <c r="D34" s="48"/>
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
       <c r="G34" s="49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H34" s="49"/>
       <c r="I34" s="55"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="157"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="157"/>
-      <c r="O34" s="171"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="161"/>
+      <c r="M34" s="161"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="180"/>
       <c r="P34" s="101"/>
-    </row>
-    <row r="35" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="146"/>
+      <c r="Q34" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="150"/>
       <c r="C35" s="2"/>
       <c r="D35" s="104"/>
       <c r="E35" s="104"/>
@@ -3618,10 +3757,10 @@
       <c r="O35" s="103"/>
       <c r="P35" s="101"/>
     </row>
-    <row r="36" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="18"/>
     </row>
-    <row r="37" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="18"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3638,58 +3777,66 @@
       <c r="O37" s="101"/>
       <c r="P37" s="101"/>
     </row>
-    <row r="38" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="146" t="s">
+    <row r="38" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="150" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="152" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
+      <c r="D38" s="147" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
       <c r="I38" s="148"/>
-      <c r="J38" s="147" t="s">
-        <v>94</v>
-      </c>
-      <c r="K38" s="147"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147"/>
-      <c r="N38" s="147"/>
-      <c r="O38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
+      <c r="N38" s="148"/>
+      <c r="O38" s="149"/>
       <c r="P38" s="101"/>
     </row>
-    <row r="39" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="146"/>
+    <row r="39" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="150"/>
       <c r="C39" s="2"/>
       <c r="D39" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+        <v>125</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="H39" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="I39" s="57"/>
       <c r="J39" s="10" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="118"/>
-      <c r="M39" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="57"/>
       <c r="P39" s="101"/>
     </row>
-    <row r="40" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="146"/>
+    <row r="40" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="150"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
+      <c r="D40" s="145" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="120" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="120" t="s">
+        <v>128</v>
+      </c>
       <c r="G40" s="120"/>
       <c r="H40" s="120"/>
       <c r="I40" s="122"/>
@@ -3701,14 +3848,18 @@
       <c r="O40" s="122"/>
       <c r="P40" s="101"/>
     </row>
-    <row r="41" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="146"/>
+    <row r="41" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="150"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="134"/>
+      <c r="D41" s="145" t="s">
+        <v>116</v>
+      </c>
       <c r="E41" s="127"/>
       <c r="F41" s="127"/>
       <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
+      <c r="H41" s="127" t="s">
+        <v>120</v>
+      </c>
       <c r="I41" s="129"/>
       <c r="J41" s="123"/>
       <c r="K41" s="124"/>
@@ -3718,12 +3869,18 @@
       <c r="O41" s="126"/>
       <c r="P41" s="101"/>
     </row>
-    <row r="42" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="146"/>
+    <row r="42" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="150"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
+      <c r="D42" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="127" t="s">
+        <v>119</v>
+      </c>
       <c r="G42" s="127"/>
       <c r="H42" s="127"/>
       <c r="I42" s="129"/>
@@ -3735,16 +3892,22 @@
       <c r="O42" s="126"/>
       <c r="P42" s="101"/>
     </row>
-    <row r="43" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="146"/>
+    <row r="43" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="150"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="123"/>
+      <c r="D43" s="142" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="134"/>
       <c r="K43" s="124"/>
       <c r="L43" s="125"/>
       <c r="M43" s="124"/>
@@ -3752,33 +3915,45 @@
       <c r="O43" s="126"/>
       <c r="P43" s="101"/>
     </row>
-    <row r="44" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="146"/>
+    <row r="44" spans="2:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="B44" s="150"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="127"/>
-      <c r="K44" s="127"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="127"/>
-      <c r="N44" s="127"/>
-      <c r="O44" s="129"/>
+      <c r="D44" s="123" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="125" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="123"/>
+      <c r="H44" s="195" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="125"/>
+      <c r="J44" s="134" t="s">
+        <v>133</v>
+      </c>
+      <c r="K44" s="124"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="124"/>
+      <c r="N44" s="124"/>
+      <c r="O44" s="126"/>
       <c r="P44" s="101"/>
     </row>
-    <row r="45" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="146"/>
+    <row r="45" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="150"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="124"/>
+      <c r="D45" s="163" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="157"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="157"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="123"/>
       <c r="K45" s="124"/>
       <c r="L45" s="125"/>
       <c r="M45" s="124"/>
@@ -3786,152 +3961,150 @@
       <c r="O45" s="126"/>
       <c r="P45" s="101"/>
     </row>
-    <row r="46" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="146"/>
+    <row r="46" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="150"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="131"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="131"/>
-      <c r="H46" s="131"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="131"/>
-      <c r="K46" s="131"/>
-      <c r="L46" s="133"/>
-      <c r="M46" s="131"/>
-      <c r="N46" s="131"/>
-      <c r="O46" s="132"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="167"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="128"/>
+      <c r="M46" s="127"/>
+      <c r="N46" s="127"/>
+      <c r="O46" s="129"/>
       <c r="P46" s="101"/>
     </row>
-    <row r="47" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="146"/>
+    <row r="47" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="150"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="149" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="150"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="150"/>
-      <c r="J47" s="150"/>
-      <c r="K47" s="150"/>
-      <c r="L47" s="150"/>
-      <c r="M47" s="150"/>
-      <c r="N47" s="150"/>
-      <c r="O47" s="151"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="124"/>
+      <c r="O47" s="126"/>
       <c r="P47" s="101"/>
     </row>
-    <row r="48" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="146"/>
+    <row r="48" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="150"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="130"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="131"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="131"/>
+      <c r="O48" s="132"/>
+      <c r="P48" s="101"/>
+    </row>
+    <row r="49" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="150"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="153" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="154"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
+      <c r="K49" s="154"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
+      <c r="N49" s="154"/>
+      <c r="O49" s="155"/>
+      <c r="P49" s="101"/>
+    </row>
+    <row r="50" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="150"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="10" t="s">
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I48" s="118"/>
-      <c r="J48" s="10" t="s">
+      <c r="I50" s="118"/>
+      <c r="J50" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K48" s="118"/>
-      <c r="L48" s="10" t="s">
+      <c r="K50" s="118"/>
+      <c r="L50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M48" s="118"/>
-      <c r="N48" s="10" t="s">
+      <c r="M50" s="118"/>
+      <c r="N50" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="O48" s="57"/>
-      <c r="P48" s="101"/>
-    </row>
-    <row r="49" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="146"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="119" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="120"/>
-      <c r="K49" s="121"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="121"/>
-      <c r="N49" s="120"/>
-      <c r="O49" s="122"/>
-      <c r="P49" s="101"/>
-    </row>
-    <row r="50" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="146"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="128"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="128"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="128"/>
-      <c r="N50" s="127"/>
-      <c r="O50" s="129"/>
+      <c r="O50" s="57"/>
       <c r="P50" s="101"/>
     </row>
     <row r="51" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="146"/>
+      <c r="B51" s="150"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="125"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="124"/>
-      <c r="M51" s="125"/>
-      <c r="N51" s="124"/>
-      <c r="O51" s="126"/>
+      <c r="D51" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="121"/>
+      <c r="L51" s="120"/>
+      <c r="M51" s="121"/>
+      <c r="N51" s="120"/>
+      <c r="O51" s="122"/>
       <c r="P51" s="101"/>
     </row>
     <row r="52" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="146"/>
+      <c r="B52" s="150"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="153" t="s">
+      <c r="D52" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="124"/>
-      <c r="M52" s="125"/>
-      <c r="N52" s="124"/>
-      <c r="O52" s="126"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="127"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="127"/>
+      <c r="O52" s="129"/>
       <c r="P52" s="101"/>
     </row>
     <row r="53" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="146"/>
+      <c r="B53" s="150"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="155"/>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="156"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="125"/>
       <c r="J53" s="124"/>
       <c r="K53" s="125"/>
       <c r="L53" s="124"/>
@@ -3941,14 +4114,16 @@
       <c r="P53" s="101"/>
     </row>
     <row r="54" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="146"/>
+      <c r="B54" s="150"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="155"/>
-      <c r="E54" s="155"/>
-      <c r="F54" s="155"/>
-      <c r="G54" s="155"/>
-      <c r="H54" s="155"/>
-      <c r="I54" s="156"/>
+      <c r="D54" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="158"/>
       <c r="J54" s="124"/>
       <c r="K54" s="125"/>
       <c r="L54" s="124"/>
@@ -3958,14 +4133,14 @@
       <c r="P54" s="101"/>
     </row>
     <row r="55" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="146"/>
+      <c r="B55" s="150"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="155"/>
-      <c r="E55" s="155"/>
-      <c r="F55" s="155"/>
-      <c r="G55" s="155"/>
-      <c r="H55" s="155"/>
-      <c r="I55" s="156"/>
+      <c r="D55" s="159"/>
+      <c r="E55" s="159"/>
+      <c r="F55" s="159"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="159"/>
+      <c r="I55" s="160"/>
       <c r="J55" s="124"/>
       <c r="K55" s="125"/>
       <c r="L55" s="124"/>
@@ -3975,140 +4150,140 @@
       <c r="P55" s="101"/>
     </row>
     <row r="56" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="146"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="157"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="157"/>
-      <c r="I56" s="158"/>
-      <c r="J56" s="131"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="131"/>
-      <c r="M56" s="133"/>
-      <c r="N56" s="131"/>
-      <c r="O56" s="132"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="159"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="159"/>
+      <c r="I56" s="160"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="125"/>
+      <c r="N56" s="124"/>
+      <c r="O56" s="126"/>
       <c r="P56" s="101"/>
     </row>
-    <row r="57" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="146"/>
+    <row r="57" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="150"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="102"/>
-      <c r="K57" s="102"/>
-      <c r="L57" s="102"/>
-      <c r="M57" s="103"/>
-      <c r="N57" s="103"/>
-      <c r="O57" s="103"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="159"/>
+      <c r="F57" s="159"/>
+      <c r="G57" s="159"/>
+      <c r="H57" s="159"/>
+      <c r="I57" s="160"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="125"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="125"/>
+      <c r="N57" s="124"/>
+      <c r="O57" s="126"/>
       <c r="P57" s="101"/>
     </row>
-    <row r="58" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="150"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="161"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="161"/>
+      <c r="H58" s="161"/>
+      <c r="I58" s="162"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="131"/>
+      <c r="M58" s="133"/>
+      <c r="N58" s="131"/>
+      <c r="O58" s="132"/>
+      <c r="P58" s="101"/>
+    </row>
     <row r="59" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="150"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="101"/>
-      <c r="K59" s="101"/>
-      <c r="L59" s="101"/>
-      <c r="M59" s="101"/>
-      <c r="N59" s="101"/>
-      <c r="O59" s="101"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="102"/>
+      <c r="K59" s="102"/>
+      <c r="L59" s="102"/>
+      <c r="M59" s="103"/>
+      <c r="N59" s="103"/>
+      <c r="O59" s="103"/>
       <c r="P59" s="101"/>
     </row>
-    <row r="60" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="164" t="s">
+    <row r="60" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="101"/>
+      <c r="K61" s="101"/>
+      <c r="L61" s="101"/>
+      <c r="M61" s="101"/>
+      <c r="N61" s="101"/>
+      <c r="O61" s="101"/>
+      <c r="P61" s="101"/>
+    </row>
+    <row r="62" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="143" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144"/>
-      <c r="G60" s="144"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="145"/>
-      <c r="J60" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="80"/>
-      <c r="P60" s="101"/>
-    </row>
-    <row r="61" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="164"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="58" t="s">
+      <c r="E62" s="148"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="148"/>
+      <c r="H62" s="148"/>
+      <c r="I62" s="149"/>
+      <c r="J62" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
+      <c r="O62" s="80"/>
+      <c r="P62" s="101"/>
+    </row>
+    <row r="63" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="173"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="K61" s="10"/>
-      <c r="L61" s="118"/>
-      <c r="M61" s="135" t="s">
+      <c r="K63" s="10"/>
+      <c r="L63" s="118"/>
+      <c r="M63" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="N61" s="135" t="s">
+      <c r="N63" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="O61" s="57" t="s">
+      <c r="O63" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="P61" s="101"/>
-    </row>
-    <row r="62" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="164"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="119"/>
-      <c r="K62" s="120"/>
-      <c r="L62" s="121"/>
-      <c r="M62" s="136"/>
-      <c r="N62" s="136"/>
-      <c r="O62" s="122"/>
-      <c r="P62" s="101"/>
-    </row>
-    <row r="63" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="164"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="93"/>
-      <c r="J63" s="123"/>
-      <c r="K63" s="124"/>
-      <c r="L63" s="125"/>
-      <c r="M63" s="137"/>
-      <c r="N63" s="137"/>
-      <c r="O63" s="126"/>
       <c r="P63" s="101"/>
     </row>
     <row r="64" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="164"/>
+      <c r="B64" s="173"/>
       <c r="C64" s="2"/>
       <c r="D64" s="91"/>
       <c r="E64" s="92"/>
@@ -4116,16 +4291,16 @@
       <c r="G64" s="92"/>
       <c r="H64" s="92"/>
       <c r="I64" s="93"/>
-      <c r="J64" s="123"/>
-      <c r="K64" s="124"/>
-      <c r="L64" s="125"/>
-      <c r="M64" s="137"/>
-      <c r="N64" s="137"/>
-      <c r="O64" s="126"/>
+      <c r="J64" s="119"/>
+      <c r="K64" s="120"/>
+      <c r="L64" s="121"/>
+      <c r="M64" s="136"/>
+      <c r="N64" s="136"/>
+      <c r="O64" s="122"/>
       <c r="P64" s="101"/>
     </row>
     <row r="65" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="164"/>
+      <c r="B65" s="173"/>
       <c r="C65" s="2"/>
       <c r="D65" s="91"/>
       <c r="E65" s="92"/>
@@ -4142,7 +4317,7 @@
       <c r="P65" s="101"/>
     </row>
     <row r="66" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="164"/>
+      <c r="B66" s="173"/>
       <c r="C66" s="2"/>
       <c r="D66" s="91"/>
       <c r="E66" s="92"/>
@@ -4159,7 +4334,7 @@
       <c r="P66" s="101"/>
     </row>
     <row r="67" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="164"/>
+      <c r="B67" s="173"/>
       <c r="C67" s="2"/>
       <c r="D67" s="91"/>
       <c r="E67" s="92"/>
@@ -4176,64 +4351,92 @@
       <c r="P67" s="101"/>
     </row>
     <row r="68" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="164"/>
+      <c r="B68" s="173"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="95"/>
-      <c r="I68" s="96"/>
-      <c r="J68" s="130"/>
-      <c r="K68" s="131"/>
-      <c r="L68" s="133"/>
-      <c r="M68" s="138"/>
-      <c r="N68" s="138"/>
-      <c r="O68" s="132"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="93"/>
+      <c r="J68" s="123"/>
+      <c r="K68" s="124"/>
+      <c r="L68" s="125"/>
+      <c r="M68" s="137"/>
+      <c r="N68" s="137"/>
+      <c r="O68" s="126"/>
       <c r="P68" s="101"/>
     </row>
-    <row r="69" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="164"/>
+    <row r="69" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="173"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="105"/>
-      <c r="I69" s="105"/>
-      <c r="J69" s="102"/>
-      <c r="K69" s="102"/>
-      <c r="L69" s="102"/>
-      <c r="M69" s="103"/>
-      <c r="N69" s="103"/>
-      <c r="O69" s="103"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="92"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="93"/>
+      <c r="J69" s="123"/>
+      <c r="K69" s="124"/>
+      <c r="L69" s="125"/>
+      <c r="M69" s="137"/>
+      <c r="N69" s="137"/>
+      <c r="O69" s="126"/>
       <c r="P69" s="101"/>
     </row>
-    <row r="70" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D70" s="14"/>
-    </row>
-    <row r="71" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="D71" s="142"/>
-      <c r="E71" s="142"/>
-      <c r="F71" s="142"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="142"/>
-      <c r="I71" s="142"/>
-      <c r="J71" s="142"/>
-      <c r="K71" s="142"/>
-      <c r="L71" s="142"/>
-      <c r="M71" s="142"/>
-      <c r="N71" s="142"/>
-      <c r="O71" s="142"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D73" s="30"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D74" s="31"/>
+    <row r="70" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="173"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="95"/>
+      <c r="I70" s="96"/>
+      <c r="J70" s="130"/>
+      <c r="K70" s="131"/>
+      <c r="L70" s="133"/>
+      <c r="M70" s="138"/>
+      <c r="N70" s="138"/>
+      <c r="O70" s="132"/>
+      <c r="P70" s="101"/>
+    </row>
+    <row r="71" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="173"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="104"/>
+      <c r="E71" s="104"/>
+      <c r="F71" s="104"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="102"/>
+      <c r="K71" s="102"/>
+      <c r="L71" s="102"/>
+      <c r="M71" s="103"/>
+      <c r="N71" s="103"/>
+      <c r="O71" s="103"/>
+      <c r="P71" s="101"/>
+    </row>
+    <row r="72" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="D73" s="146"/>
+      <c r="E73" s="146"/>
+      <c r="F73" s="146"/>
+      <c r="G73" s="146"/>
+      <c r="H73" s="146"/>
+      <c r="I73" s="146"/>
+      <c r="J73" s="146"/>
+      <c r="K73" s="146"/>
+      <c r="L73" s="146"/>
+      <c r="M73" s="146"/>
+      <c r="N73" s="146"/>
+      <c r="O73" s="146"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D75" s="31"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D76" s="31"/>
@@ -4249,6 +4452,12 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D80" s="31"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="31"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -4265,25 +4474,29 @@
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="J22:O22"/>
     <mergeCell ref="I26:I30"/>
-    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="B62:B71"/>
     <mergeCell ref="J23:O23"/>
     <mergeCell ref="J24:O24"/>
     <mergeCell ref="J25:O25"/>
     <mergeCell ref="J27:O27"/>
     <mergeCell ref="J29:O34"/>
-    <mergeCell ref="D71:O71"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="B38:B57"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="D47:O47"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D52:I56"/>
+    <mergeCell ref="D38:O38"/>
+    <mergeCell ref="D73:O73"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="B38:B59"/>
+    <mergeCell ref="D49:O49"/>
+    <mergeCell ref="D54:I58"/>
+    <mergeCell ref="D45:I46"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D40" r:id="rId1" display="https://knf.com/en/us/solutions/pumps?tx_products_oemlist%5Bcontroller%5D=Series&amp;tx_products_oemlist%5Bpage%5D=3&amp;cHash=a4aa78e1b54e65ab16ba7083456b529f" xr:uid="{ACF47C49-8A9C-4B23-8D0A-D63F3C9E13C0}"/>
+    <hyperlink ref="D41" r:id="rId2" display="https://www.schwarzer.com/en/gas-pumps" xr:uid="{D1BFD789-B8E7-4FF5-8DA8-F06FCAB00667}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.4" bottom="0.2" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4335,7 +4548,7 @@
       <c r="O2" s="100"/>
     </row>
     <row r="3" spans="2:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="150" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2"/>
@@ -4358,28 +4571,28 @@
       <c r="P3" s="101"/>
     </row>
     <row r="4" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="146"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="172" t="s">
+      <c r="D4" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="172" t="s">
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="162"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="171"/>
       <c r="P4" s="101"/>
     </row>
     <row r="5" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="146"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="2"/>
       <c r="D5" s="43"/>
       <c r="E5" s="44"/>
@@ -4396,7 +4609,7 @@
       <c r="P5" s="101"/>
     </row>
     <row r="6" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="146"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="2"/>
       <c r="D6" s="32" t="s">
         <v>39</v>
@@ -4421,7 +4634,7 @@
       <c r="P6" s="101"/>
     </row>
     <row r="7" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="2"/>
       <c r="D7" s="43"/>
       <c r="E7" s="44"/>
@@ -4438,35 +4651,35 @@
       <c r="P7" s="101"/>
     </row>
     <row r="8" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="146"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="173" t="s">
+      <c r="D8" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="185" t="s">
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="177"/>
-      <c r="O8" s="178"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="187"/>
       <c r="P8" s="101"/>
     </row>
     <row r="9" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="146"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="167"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="176"/>
       <c r="J9" s="111"/>
       <c r="K9" s="6"/>
       <c r="L9" s="85" t="s">
@@ -4480,14 +4693,14 @@
       <c r="P9" s="101"/>
     </row>
     <row r="10" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="146"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="169"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="178"/>
       <c r="J10" s="112"/>
       <c r="K10" s="6"/>
       <c r="L10" s="86" t="s">
@@ -4501,14 +4714,14 @@
       <c r="P10" s="101"/>
     </row>
     <row r="11" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="146"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="169"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="178"/>
       <c r="J11" s="112"/>
       <c r="K11" s="6"/>
       <c r="L11" s="86" t="s">
@@ -4522,14 +4735,14 @@
       <c r="P11" s="101"/>
     </row>
     <row r="12" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="146"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="169"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="178"/>
       <c r="J12" s="112"/>
       <c r="K12" s="6"/>
       <c r="L12" s="86" t="s">
@@ -4543,14 +4756,14 @@
       <c r="P12" s="101"/>
     </row>
     <row r="13" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="146"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="171"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="180"/>
       <c r="J13" s="113"/>
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
@@ -4560,115 +4773,115 @@
       <c r="P13" s="101"/>
     </row>
     <row r="14" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="146"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="149" t="s">
+      <c r="D14" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="149" t="s">
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="151"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="155"/>
       <c r="P14" s="101"/>
     </row>
     <row r="15" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="146"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="167"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="176"/>
       <c r="P15" s="101"/>
     </row>
     <row r="16" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="146"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="155"/>
-      <c r="O16" s="169"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="178"/>
       <c r="P16" s="101"/>
     </row>
     <row r="17" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="146"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="155"/>
-      <c r="O17" s="169"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="178"/>
       <c r="P17" s="101"/>
     </row>
     <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="146"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="171"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="180"/>
       <c r="P18" s="101"/>
     </row>
     <row r="19" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="146"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="143" t="s">
+      <c r="D19" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="145"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="149"/>
       <c r="P19" s="101"/>
     </row>
     <row r="20" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="146"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="2"/>
       <c r="D20" s="34"/>
       <c r="E20" s="17"/>
@@ -4685,7 +4898,7 @@
       <c r="P20" s="101"/>
     </row>
     <row r="21" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="146"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="2"/>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
@@ -4702,7 +4915,7 @@
       <c r="P21" s="101"/>
     </row>
     <row r="22" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="146"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="2"/>
       <c r="D22" s="104"/>
       <c r="E22" s="104"/>
@@ -4746,30 +4959,30 @@
       <c r="P25" s="101"/>
     </row>
     <row r="26" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="150" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="152" t="s">
+      <c r="D26" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="182" t="s">
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="191" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="184"/>
+      <c r="K26" s="192"/>
+      <c r="L26" s="192"/>
+      <c r="M26" s="192"/>
+      <c r="N26" s="192"/>
+      <c r="O26" s="193"/>
       <c r="P26" s="101"/>
     </row>
     <row r="27" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="146"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="2"/>
       <c r="D27" s="46"/>
       <c r="E27" s="3"/>
@@ -4788,7 +5001,7 @@
       <c r="P27" s="101"/>
     </row>
     <row r="28" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="146"/>
+      <c r="B28" s="150"/>
       <c r="C28" s="2"/>
       <c r="D28" s="47"/>
       <c r="E28" s="4"/>
@@ -4807,7 +5020,7 @@
       <c r="P28" s="101"/>
     </row>
     <row r="29" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="146"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="2"/>
       <c r="D29" s="47"/>
       <c r="E29" s="4"/>
@@ -4826,14 +5039,14 @@
       <c r="P29" s="101"/>
     </row>
     <row r="30" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="146"/>
+      <c r="B30" s="150"/>
       <c r="C30" s="2"/>
       <c r="D30" s="47"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="163" t="s">
+      <c r="I30" s="172" t="s">
         <v>9</v>
       </c>
       <c r="J30" s="114" t="s">
@@ -4847,14 +5060,14 @@
       <c r="P30" s="101"/>
     </row>
     <row r="31" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="146"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="2"/>
       <c r="D31" s="47"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="163"/>
+      <c r="I31" s="172"/>
       <c r="J31" s="115" t="s">
         <v>26</v>
       </c>
@@ -4866,60 +5079,60 @@
       <c r="P31" s="101"/>
     </row>
     <row r="32" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="146"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="2"/>
       <c r="D32" s="47"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="172" t="s">
+      <c r="I32" s="172"/>
+      <c r="J32" s="181" t="s">
         <v>61</v>
       </c>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="162"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="170"/>
+      <c r="M32" s="170"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="171"/>
       <c r="P32" s="101"/>
     </row>
     <row r="33" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="146"/>
+      <c r="B33" s="150"/>
       <c r="C33" s="2"/>
       <c r="D33" s="47"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="166"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="167"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="175"/>
+      <c r="M33" s="175"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="176"/>
       <c r="P33" s="101"/>
     </row>
     <row r="34" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="146"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="2"/>
       <c r="D34" s="47"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="168"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="169"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="159"/>
+      <c r="M34" s="159"/>
+      <c r="N34" s="159"/>
+      <c r="O34" s="178"/>
       <c r="P34" s="101"/>
     </row>
     <row r="35" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="146"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="2"/>
       <c r="D35" s="47"/>
       <c r="E35" s="4"/>
@@ -4927,16 +5140,16 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="53"/>
-      <c r="J35" s="168"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="169"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="159"/>
+      <c r="L35" s="159"/>
+      <c r="M35" s="159"/>
+      <c r="N35" s="159"/>
+      <c r="O35" s="178"/>
       <c r="P35" s="101"/>
     </row>
     <row r="36" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="146"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="2"/>
       <c r="D36" s="47"/>
       <c r="E36" s="4"/>
@@ -4944,16 +5157,16 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="54"/>
-      <c r="J36" s="168"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="169"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="159"/>
+      <c r="M36" s="159"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="178"/>
       <c r="P36" s="101"/>
     </row>
     <row r="37" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="146"/>
+      <c r="B37" s="150"/>
       <c r="C37" s="2"/>
       <c r="D37" s="47"/>
       <c r="E37" s="4"/>
@@ -4961,16 +5174,16 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="54"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="157"/>
-      <c r="L37" s="157"/>
-      <c r="M37" s="157"/>
-      <c r="N37" s="157"/>
-      <c r="O37" s="171"/>
+      <c r="J37" s="179"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="161"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="161"/>
+      <c r="O37" s="180"/>
       <c r="P37" s="101"/>
     </row>
     <row r="38" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="146"/>
+      <c r="B38" s="150"/>
       <c r="C38" s="2"/>
       <c r="D38" s="48"/>
       <c r="E38" s="49"/>
@@ -4989,7 +5202,7 @@
       <c r="P38" s="101"/>
     </row>
     <row r="39" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="146"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="2"/>
       <c r="D39" s="104"/>
       <c r="E39" s="104"/>
@@ -5037,7 +5250,7 @@
       <c r="P42" s="101"/>
     </row>
     <row r="43" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="146" t="s">
+      <c r="B43" s="150" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="2"/>
@@ -5049,27 +5262,27 @@
       </c>
       <c r="H43" s="65"/>
       <c r="I43" s="66"/>
-      <c r="J43" s="152" t="s">
+      <c r="J43" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
-      <c r="O43" s="148"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="152"/>
       <c r="P43" s="101"/>
     </row>
     <row r="44" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="146"/>
+      <c r="B44" s="150"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="149" t="s">
+      <c r="D44" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="150"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="151"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="155"/>
       <c r="J44" s="58" t="s">
         <v>31</v>
       </c>
@@ -5089,14 +5302,14 @@
       <c r="P44" s="101"/>
     </row>
     <row r="45" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="146"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="166"/>
-      <c r="F45" s="166"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="166"/>
-      <c r="I45" s="167"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="175"/>
+      <c r="I45" s="176"/>
       <c r="J45" s="59"/>
       <c r="K45" s="13"/>
       <c r="L45" s="16"/>
@@ -5106,14 +5319,14 @@
       <c r="P45" s="101"/>
     </row>
     <row r="46" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="146"/>
+      <c r="B46" s="150"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="155"/>
-      <c r="G46" s="155"/>
-      <c r="H46" s="155"/>
-      <c r="I46" s="169"/>
+      <c r="D46" s="177"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="159"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="178"/>
       <c r="J46" s="59"/>
       <c r="K46" s="13"/>
       <c r="L46" s="16"/>
@@ -5123,14 +5336,14 @@
       <c r="P46" s="101"/>
     </row>
     <row r="47" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="146"/>
+      <c r="B47" s="150"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="171"/>
+      <c r="D47" s="179"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="180"/>
       <c r="J47" s="59"/>
       <c r="K47" s="13"/>
       <c r="L47" s="16"/>
@@ -5140,16 +5353,16 @@
       <c r="P47" s="101"/>
     </row>
     <row r="48" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="146"/>
+      <c r="B48" s="150"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="149" t="s">
+      <c r="D48" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="150"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="151"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="155"/>
       <c r="J48" s="59"/>
       <c r="K48" s="13"/>
       <c r="L48" s="16"/>
@@ -5159,14 +5372,14 @@
       <c r="P48" s="101"/>
     </row>
     <row r="49" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="146"/>
+      <c r="B49" s="150"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="165"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="166"/>
-      <c r="I49" s="167"/>
+      <c r="D49" s="174"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="176"/>
       <c r="J49" s="59"/>
       <c r="K49" s="13"/>
       <c r="L49" s="16"/>
@@ -5176,14 +5389,14 @@
       <c r="P49" s="101"/>
     </row>
     <row r="50" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="146"/>
+      <c r="B50" s="150"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="168"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="155"/>
-      <c r="G50" s="155"/>
-      <c r="H50" s="155"/>
-      <c r="I50" s="169"/>
+      <c r="D50" s="177"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="159"/>
+      <c r="I50" s="178"/>
       <c r="J50" s="59"/>
       <c r="K50" s="13"/>
       <c r="L50" s="16"/>
@@ -5193,14 +5406,14 @@
       <c r="P50" s="101"/>
     </row>
     <row r="51" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="146"/>
+      <c r="B51" s="150"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="171"/>
+      <c r="D51" s="179"/>
+      <c r="E51" s="161"/>
+      <c r="F51" s="161"/>
+      <c r="G51" s="161"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="180"/>
       <c r="J51" s="36"/>
       <c r="K51" s="60"/>
       <c r="L51" s="61"/>
@@ -5210,26 +5423,26 @@
       <c r="P51" s="101"/>
     </row>
     <row r="52" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="146"/>
+      <c r="B52" s="150"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="172" t="s">
+      <c r="D52" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="161"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="161"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="161"/>
-      <c r="J52" s="161"/>
-      <c r="K52" s="161"/>
-      <c r="L52" s="161"/>
-      <c r="M52" s="161"/>
-      <c r="N52" s="161"/>
-      <c r="O52" s="162"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="170"/>
+      <c r="K52" s="170"/>
+      <c r="L52" s="170"/>
+      <c r="M52" s="170"/>
+      <c r="N52" s="170"/>
+      <c r="O52" s="171"/>
       <c r="P52" s="101"/>
     </row>
     <row r="53" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="146"/>
+      <c r="B53" s="150"/>
       <c r="C53" s="2"/>
       <c r="D53" s="58" t="s">
         <v>13</v>
@@ -5254,7 +5467,7 @@
       <c r="P53" s="101"/>
     </row>
     <row r="54" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="146"/>
+      <c r="B54" s="150"/>
       <c r="C54" s="2"/>
       <c r="D54" s="59"/>
       <c r="E54" s="5"/>
@@ -5271,7 +5484,7 @@
       <c r="P54" s="101"/>
     </row>
     <row r="55" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="146"/>
+      <c r="B55" s="150"/>
       <c r="C55" s="2"/>
       <c r="D55" s="59"/>
       <c r="E55" s="5"/>
@@ -5288,7 +5501,7 @@
       <c r="P55" s="101"/>
     </row>
     <row r="56" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="146"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="2"/>
       <c r="D56" s="36"/>
       <c r="E56" s="38"/>
@@ -5305,26 +5518,26 @@
       <c r="P56" s="101"/>
     </row>
     <row r="57" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="146"/>
+      <c r="B57" s="150"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="172" t="s">
+      <c r="D57" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="161"/>
-      <c r="F57" s="161"/>
-      <c r="G57" s="161"/>
-      <c r="H57" s="161"/>
-      <c r="I57" s="161"/>
-      <c r="J57" s="161"/>
-      <c r="K57" s="161"/>
-      <c r="L57" s="161"/>
-      <c r="M57" s="161"/>
-      <c r="N57" s="161"/>
-      <c r="O57" s="162"/>
+      <c r="E57" s="170"/>
+      <c r="F57" s="170"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="170"/>
+      <c r="K57" s="170"/>
+      <c r="L57" s="170"/>
+      <c r="M57" s="170"/>
+      <c r="N57" s="170"/>
+      <c r="O57" s="171"/>
       <c r="P57" s="101"/>
     </row>
     <row r="58" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="146"/>
+      <c r="B58" s="150"/>
       <c r="C58" s="2"/>
       <c r="D58" s="58" t="s">
         <v>16</v>
@@ -5351,7 +5564,7 @@
       <c r="P58" s="101"/>
     </row>
     <row r="59" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="146"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="2"/>
       <c r="D59" s="59"/>
       <c r="E59" s="5"/>
@@ -5368,7 +5581,7 @@
       <c r="P59" s="101"/>
     </row>
     <row r="60" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="146"/>
+      <c r="B60" s="150"/>
       <c r="C60" s="2"/>
       <c r="D60" s="59"/>
       <c r="E60" s="5"/>
@@ -5385,7 +5598,7 @@
       <c r="P60" s="101"/>
     </row>
     <row r="61" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="146"/>
+      <c r="B61" s="150"/>
       <c r="C61" s="2"/>
       <c r="D61" s="59"/>
       <c r="E61" s="5"/>
@@ -5402,7 +5615,7 @@
       <c r="P61" s="101"/>
     </row>
     <row r="62" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="146"/>
+      <c r="B62" s="150"/>
       <c r="C62" s="2"/>
       <c r="D62" s="59"/>
       <c r="E62" s="5"/>
@@ -5419,7 +5632,7 @@
       <c r="P62" s="101"/>
     </row>
     <row r="63" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="146"/>
+      <c r="B63" s="150"/>
       <c r="C63" s="2"/>
       <c r="D63" s="36"/>
       <c r="E63" s="38"/>
@@ -5436,7 +5649,7 @@
       <c r="P63" s="101"/>
     </row>
     <row r="64" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="146"/>
+      <c r="B64" s="150"/>
       <c r="C64" s="2"/>
       <c r="D64" s="104"/>
       <c r="E64" s="104"/>
@@ -5480,7 +5693,7 @@
       <c r="P67" s="101"/>
     </row>
     <row r="68" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="164" t="s">
+      <c r="B68" s="173" t="s">
         <v>20</v>
       </c>
       <c r="C68" s="2"/>
@@ -5494,18 +5707,18 @@
         <v>34</v>
       </c>
       <c r="I68" s="73"/>
-      <c r="J68" s="152" t="s">
+      <c r="J68" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="K68" s="147"/>
-      <c r="L68" s="147"/>
-      <c r="M68" s="147"/>
-      <c r="N68" s="147"/>
-      <c r="O68" s="148"/>
+      <c r="K68" s="151"/>
+      <c r="L68" s="151"/>
+      <c r="M68" s="151"/>
+      <c r="N68" s="151"/>
+      <c r="O68" s="152"/>
       <c r="P68" s="101"/>
     </row>
     <row r="69" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="164"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="2"/>
       <c r="D69" s="74"/>
       <c r="E69" s="75" t="s">
@@ -5536,16 +5749,16 @@
       <c r="P69" s="101"/>
     </row>
     <row r="70" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="164"/>
+      <c r="B70" s="173"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="179" t="s">
+      <c r="D70" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="E70" s="180"/>
-      <c r="F70" s="180"/>
-      <c r="G70" s="180"/>
-      <c r="H70" s="180"/>
-      <c r="I70" s="181"/>
+      <c r="E70" s="189"/>
+      <c r="F70" s="189"/>
+      <c r="G70" s="189"/>
+      <c r="H70" s="189"/>
+      <c r="I70" s="190"/>
       <c r="J70" s="59"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
@@ -5555,14 +5768,14 @@
       <c r="P70" s="101"/>
     </row>
     <row r="71" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="164"/>
+      <c r="B71" s="173"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="166"/>
-      <c r="F71" s="166"/>
-      <c r="G71" s="166"/>
-      <c r="H71" s="166"/>
-      <c r="I71" s="167"/>
+      <c r="D71" s="174"/>
+      <c r="E71" s="175"/>
+      <c r="F71" s="175"/>
+      <c r="G71" s="175"/>
+      <c r="H71" s="175"/>
+      <c r="I71" s="176"/>
       <c r="J71" s="59"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
@@ -5572,14 +5785,14 @@
       <c r="P71" s="101"/>
     </row>
     <row r="72" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="164"/>
+      <c r="B72" s="173"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="168"/>
-      <c r="E72" s="155"/>
-      <c r="F72" s="155"/>
-      <c r="G72" s="155"/>
-      <c r="H72" s="155"/>
-      <c r="I72" s="169"/>
+      <c r="D72" s="177"/>
+      <c r="E72" s="159"/>
+      <c r="F72" s="159"/>
+      <c r="G72" s="159"/>
+      <c r="H72" s="159"/>
+      <c r="I72" s="178"/>
       <c r="J72" s="59"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
@@ -5589,14 +5802,14 @@
       <c r="P72" s="101"/>
     </row>
     <row r="73" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="164"/>
+      <c r="B73" s="173"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="170"/>
-      <c r="E73" s="157"/>
-      <c r="F73" s="157"/>
-      <c r="G73" s="157"/>
-      <c r="H73" s="157"/>
-      <c r="I73" s="171"/>
+      <c r="D73" s="179"/>
+      <c r="E73" s="161"/>
+      <c r="F73" s="161"/>
+      <c r="G73" s="161"/>
+      <c r="H73" s="161"/>
+      <c r="I73" s="180"/>
       <c r="J73" s="36"/>
       <c r="K73" s="37"/>
       <c r="L73" s="37"/>
@@ -5606,7 +5819,7 @@
       <c r="P73" s="101"/>
     </row>
     <row r="74" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="164"/>
+      <c r="B74" s="173"/>
       <c r="C74" s="2"/>
       <c r="D74" s="71" t="s">
         <v>76</v>
@@ -5617,7 +5830,7 @@
       <c r="H74" s="29"/>
       <c r="I74" s="72"/>
       <c r="J74" s="81" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K74" s="79"/>
       <c r="L74" s="79"/>
@@ -5627,14 +5840,14 @@
       <c r="P74" s="101"/>
     </row>
     <row r="75" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="164"/>
+      <c r="B75" s="173"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="166"/>
-      <c r="F75" s="166"/>
-      <c r="G75" s="166"/>
-      <c r="H75" s="166"/>
-      <c r="I75" s="167"/>
+      <c r="D75" s="174"/>
+      <c r="E75" s="175"/>
+      <c r="F75" s="175"/>
+      <c r="G75" s="175"/>
+      <c r="H75" s="175"/>
+      <c r="I75" s="176"/>
       <c r="J75" s="58" t="s">
         <v>32</v>
       </c>
@@ -5652,14 +5865,14 @@
       <c r="P75" s="101"/>
     </row>
     <row r="76" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="164"/>
+      <c r="B76" s="173"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="170"/>
-      <c r="E76" s="157"/>
-      <c r="F76" s="157"/>
-      <c r="G76" s="157"/>
-      <c r="H76" s="157"/>
-      <c r="I76" s="171"/>
+      <c r="D76" s="179"/>
+      <c r="E76" s="161"/>
+      <c r="F76" s="161"/>
+      <c r="G76" s="161"/>
+      <c r="H76" s="161"/>
+      <c r="I76" s="180"/>
       <c r="J76" s="34"/>
       <c r="K76" s="7"/>
       <c r="L76" s="8"/>
@@ -5669,7 +5882,7 @@
       <c r="P76" s="101"/>
     </row>
     <row r="77" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="164"/>
+      <c r="B77" s="173"/>
       <c r="C77" s="2"/>
       <c r="D77" s="71" t="s">
         <v>57</v>
@@ -5688,7 +5901,7 @@
       <c r="P77" s="101"/>
     </row>
     <row r="78" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="164"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="2"/>
       <c r="D78" s="34"/>
       <c r="E78" s="7"/>
@@ -5705,7 +5918,7 @@
       <c r="P78" s="101"/>
     </row>
     <row r="79" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="164"/>
+      <c r="B79" s="173"/>
       <c r="C79" s="2"/>
       <c r="D79" s="34"/>
       <c r="E79" s="7"/>
@@ -5722,7 +5935,7 @@
       <c r="P79" s="101"/>
     </row>
     <row r="80" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="164"/>
+      <c r="B80" s="173"/>
       <c r="C80" s="2"/>
       <c r="D80" s="36"/>
       <c r="E80" s="38"/>
@@ -5739,7 +5952,7 @@
       <c r="P80" s="101"/>
     </row>
     <row r="81" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="164"/>
+      <c r="B81" s="173"/>
       <c r="C81" s="2"/>
       <c r="D81" s="104"/>
       <c r="E81" s="104"/>
@@ -5757,7 +5970,7 @@
     </row>
     <row r="82" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D82" s="117" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N82" s="109" t="s">
         <v>37</v>
@@ -5785,26 +5998,26 @@
       </c>
       <c r="L84" s="22"/>
       <c r="N84" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O84" s="22"/>
     </row>
     <row r="85" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="D86" s="142" t="s">
+      <c r="D86" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="E86" s="142"/>
-      <c r="F86" s="142"/>
-      <c r="G86" s="142"/>
-      <c r="H86" s="142"/>
-      <c r="I86" s="142"/>
-      <c r="J86" s="142"/>
-      <c r="K86" s="142"/>
-      <c r="L86" s="142"/>
-      <c r="M86" s="142"/>
-      <c r="N86" s="142"/>
-      <c r="O86" s="142"/>
+      <c r="E86" s="146"/>
+      <c r="F86" s="146"/>
+      <c r="G86" s="146"/>
+      <c r="H86" s="146"/>
+      <c r="I86" s="146"/>
+      <c r="J86" s="146"/>
+      <c r="K86" s="146"/>
+      <c r="L86" s="146"/>
+      <c r="M86" s="146"/>
+      <c r="N86" s="146"/>
+      <c r="O86" s="146"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D88" s="30" t="s">

--- a/documents/A3 Reports/A3 2-27-24.xlsx
+++ b/documents/A3 Reports/A3 2-27-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/619d7d6d1699b471/Employment/Que/Documents/A3 Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{877B3E56-3F63-4523-8824-889E3860A364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{249EAA4F-E52D-4F53-B7B6-BD652B744430}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{877B3E56-3F63-4523-8824-889E3860A364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{850ABBDF-6142-4165-B29C-397B259B4130}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="840" windowWidth="19470" windowHeight="13875" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A3 Problem Solving - Simple" sheetId="6" r:id="rId1"/>
@@ -22,8 +22,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'A3 Problem Solving - Advanced'!$B$1:$Q$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'A3 Problem Solving - Simple'!$B$1:$Q$74</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -40,418 +43,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="135">
-  <si>
-    <t>Continuous Improvement Toolkit . www.citoolkit.com</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>Delivery</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Reference #:</t>
-  </si>
-  <si>
-    <t>Problem Solving</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>[                    ]</t>
-  </si>
-  <si>
-    <t>Problem Category</t>
-  </si>
-  <si>
-    <t>Process owner:</t>
-  </si>
-  <si>
-    <t>Note taker:</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Revision #:</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Due To</t>
-  </si>
-  <si>
-    <t>Customer satisfaction</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Process Map Exist?</t>
-  </si>
-  <si>
-    <t>Why 1</t>
-  </si>
-  <si>
-    <t>Why 2</t>
-  </si>
-  <si>
-    <t>Why 3</t>
-  </si>
-  <si>
-    <t>Why 4</t>
-  </si>
-  <si>
-    <t>Why 5</t>
-  </si>
-  <si>
-    <t>Who?</t>
-  </si>
-  <si>
-    <t>Ease</t>
-  </si>
-  <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>What?</t>
-  </si>
-  <si>
-    <t>When?</t>
-  </si>
-  <si>
-    <t>Results verified?</t>
-  </si>
-  <si>
-    <t>Improvement implemented?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Problem Description </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Initial condition)</t>
-    </r>
-  </si>
-  <si>
-    <t>Attachments?</t>
-  </si>
-  <si>
-    <t>Leader/facilitator:</t>
-  </si>
-  <si>
-    <t>Process Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="145">
   <si>
     <t>Problem  Definition</t>
-  </si>
-  <si>
-    <t>Waste and efficiency</t>
-  </si>
-  <si>
-    <t>Moral</t>
-  </si>
-  <si>
-    <r>
-      <t>Decision and Agreements</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Explain the reasoning behind the decision)</t>
-    </r>
-  </si>
-  <si>
-    <t>Target achieved?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Result Summary </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Including benefits obtained)</t>
-    </r>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Baseline</t>
-  </si>
-  <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Variance %</t>
-  </si>
-  <si>
-    <t>Cause Analysis</t>
-  </si>
-  <si>
-    <t>Will addressing this cause(s) solve the problem permanently?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Implementation Plan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Implement countermeasures)</t>
-    </r>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Key Metrics</t>
-  </si>
-  <si>
-    <t>Signatures:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Controls Required </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(SOP, training, audits, SPC charts, visual controls, mistake proofing, PM, etc.)</t>
-    </r>
-  </si>
-  <si>
-    <t>Solution Description</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Scope </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Location, area, line, department, boundaries, etc.)</t>
-    </r>
-  </si>
-  <si>
-    <t>Countermeasures</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cause Analysis Summary </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Prioritize in order of importance - % Contribution)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Goal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Target condition)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Key Metrics </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Include baseline and improvement goals)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cause and Effect </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Brainstorming - Prioritize the causes)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5 Whys </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Brainstorming - Ask, why did this occur?)</t>
-    </r>
-  </si>
-  <si>
-    <t>Proceed with solving the problem?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">List of Countermeasures and Quick Wins </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Brainstorming - Relate to the root causes)</t>
-    </r>
-  </si>
-  <si>
-    <t>Additional documents can be attached to this form including a more in-depth root cause analysis and the prioritization method used.</t>
-  </si>
-  <si>
-    <t>Team Members</t>
-  </si>
-  <si>
-    <t>Additional documents can be attached to this form including a more detailed implementation plan.</t>
-  </si>
-  <si>
-    <t>Can the solution be deployed?</t>
-  </si>
-  <si>
-    <t>Additional documents can be attached to this form including before photos, drawings and a more detailed cost benefit analysis.</t>
-  </si>
-  <si>
-    <t>Leader:</t>
-  </si>
-  <si>
-    <t>Analyst:</t>
-  </si>
-  <si>
-    <t>Process Owner:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verification Comments </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Assess countermeasures)</t>
-    </r>
-  </si>
-  <si>
-    <t>Guide:</t>
-  </si>
-  <si>
-    <t>The A3 Template provides a simple and consistent approach to problem solving throughout the organization using the logical thinking process.</t>
-  </si>
-  <si>
-    <t>It is an effective way in bringing together many of the tools used in problem solving and process improvement.</t>
-  </si>
-  <si>
-    <t>It is composed of a sequence of sections:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4- Verify results and create a follow-up process.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 - Establish the business context and describe the current and the target conditions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3- Identify and develop countermeasures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2- Establish causality.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Expected Benefits </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Hard savings and soft savings)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -469,10 +63,70 @@
     </r>
   </si>
   <si>
+    <t>Problem Solving</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
     <t>Estimated Completion Date</t>
   </si>
   <si>
+    <t>Finding parts</t>
+  </si>
+  <si>
+    <t>Problem Description</t>
+  </si>
+  <si>
+    <t>Problem Category</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Waste and efficiency</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Health and safety</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Customer satisfaction</t>
+  </si>
+  <si>
+    <t>Moral</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
     <t>Expected Benefits</t>
+  </si>
+  <si>
+    <t>Determine best parts</t>
+  </si>
+  <si>
+    <t>Smaller, better functioning device</t>
+  </si>
+  <si>
+    <t>Cause Analysis</t>
+  </si>
+  <si>
+    <t>Cause and Effect and 5 Whys</t>
   </si>
   <si>
     <r>
@@ -489,16 +143,447 @@
     </r>
   </si>
   <si>
-    <t>Problem Description</t>
-  </si>
-  <si>
-    <t>Health and safety</t>
-  </si>
-  <si>
-    <t>Cause and Effect and 5 Whys</t>
+    <t>Find best websites</t>
+  </si>
+  <si>
+    <t>Haven't contacted engineering sales</t>
+  </si>
+  <si>
+    <t>1. Find best supplier websites</t>
+  </si>
+  <si>
+    <t>2. Contact engineering sales to reduce time until reply</t>
+  </si>
+  <si>
+    <t>3. Research current devices and parts to get better idea of products</t>
+  </si>
+  <si>
+    <t>[Still need best parts]</t>
+  </si>
+  <si>
+    <t>Still need to contact the last 3 on Bimle's list and search the websites thoroughly</t>
+  </si>
+  <si>
+    <t>Hi, I am looking for microblowers or miniature air pumps for a smart necklace that emits a scent in a controlled fashion in response to certain criteria. In this order of importance, I am looking for pumps that are as small as possible, quiet, and have low power consumption. Generating high amount of pressure is not necessary. It would be nice if it could tolerate the passage of essential oil vapor through the pump, but it is not mandatory as I can use a separate valve instead. I don't have an exact specificatin for flow rate, but it needs to be enough to blow the scent from a wick on the necklace to the wearer's nose.</t>
+  </si>
+  <si>
+    <t>Research current devices and what they use</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Countermeasures</t>
+  </si>
+  <si>
+    <t>Contacted Companies</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Diaphragm Pumps | KNF</t>
+  </si>
+  <si>
+    <t>contact 9-5 - left message</t>
+  </si>
+  <si>
+    <t>None yet</t>
+  </si>
+  <si>
+    <t>Gas Pumps (schwarzer.com)</t>
+  </si>
+  <si>
+    <t>pumps are too big</t>
+  </si>
+  <si>
+    <t>CurieJet</t>
+  </si>
+  <si>
+    <t>Contacted</t>
+  </si>
+  <si>
+    <t>Takasago</t>
+  </si>
+  <si>
+    <t>email response</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>call/email response</t>
+  </si>
+  <si>
+    <t>https://mail.google.com/mail/u/0/#inbox/FMfcgzGxRxDZPRFztpSmjqpnztwrMtDv</t>
+  </si>
+  <si>
+    <t>ask about power consumption, design choices, technical requirements, etc. with PCB designer</t>
   </si>
   <si>
     <t>Implementation Plan</t>
+  </si>
+  <si>
+    <t>Order of Execution</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Who?</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Due To</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Research current devices</t>
+  </si>
+  <si>
+    <t>Detemine initial pump/fan</t>
+  </si>
+  <si>
+    <t>Contact engineering salespeople - pumps, battery, valves</t>
+  </si>
+  <si>
+    <t>Determine power draw of components</t>
+  </si>
+  <si>
+    <t>Contact PCB designer to determine power draw of PCB. Talk about initial testing with nano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce horizontally directed tubular structures with a flat side to lay on, and a curve that follows the jaw line (curve concave). Make both ends of the necklace attach to the necklace so that it is less likely to flop around and hit you in the face. Round ones can work, but the pendant should still be in the middle with two opposite attachment points for the necklace. </t>
+  </si>
+  <si>
+    <t>Determine battery</t>
+  </si>
+  <si>
+    <t>Order parts</t>
+  </si>
+  <si>
+    <t>Tests parts with nano</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Result Summary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Including benefits obtained)</t>
+    </r>
+  </si>
+  <si>
+    <t>Follow-up Actions</t>
+  </si>
+  <si>
+    <t>What?</t>
+  </si>
+  <si>
+    <t>When?</t>
+  </si>
+  <si>
+    <t>Reference #:</t>
+  </si>
+  <si>
+    <t>Process owner:</t>
+  </si>
+  <si>
+    <t>Leader/facilitator:</t>
+  </si>
+  <si>
+    <t>Note taker:</t>
+  </si>
+  <si>
+    <t>Revision #:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scope </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Location, area, line, department, boundaries, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Process Name</t>
+  </si>
+  <si>
+    <t>Process Map Exist?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Problem Description </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Initial condition)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Goal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Target condition)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Benefits </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Hard savings and soft savings)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key Metrics </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Include baseline and improvement goals)</t>
+    </r>
+  </si>
+  <si>
+    <t>Additional documents can be attached to this form including before photos, drawings and a more detailed cost benefit analysis.</t>
+  </si>
+  <si>
+    <t>Attachments?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cause and Effect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Brainstorming - Prioritize the causes)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 Whys </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Brainstorming - Ask, why did this occur?)</t>
+    </r>
+  </si>
+  <si>
+    <t>Why 1</t>
+  </si>
+  <si>
+    <t>Why 2</t>
+  </si>
+  <si>
+    <t>Why 3</t>
+  </si>
+  <si>
+    <t>[                    ]</t>
+  </si>
+  <si>
+    <t>Why 4</t>
+  </si>
+  <si>
+    <t>Why 5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cause Analysis Summary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Prioritize in order of importance - % Contribution)</t>
+    </r>
+  </si>
+  <si>
+    <t>Will addressing this cause(s) solve the problem permanently?</t>
+  </si>
+  <si>
+    <t>Additional documents can be attached to this form including a more in-depth root cause analysis and the prioritization method used.</t>
+  </si>
+  <si>
+    <t>Proceed with solving the problem?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List of Countermeasures and Quick Wins </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Brainstorming - Relate to the root causes)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decision and Agreements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Explain the reasoning behind the decision)</t>
+    </r>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Ease</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Solution Description</t>
+  </si>
+  <si>
+    <t>Team Members</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Implementation Plan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Implement countermeasures)</t>
+    </r>
+  </si>
+  <si>
+    <t>Additional documents can be attached to this form including a more detailed implementation plan.</t>
+  </si>
+  <si>
+    <t>Improvement implemented?</t>
+  </si>
+  <si>
+    <t>Results verified?</t>
+  </si>
+  <si>
+    <t>Key Metrics</t>
+  </si>
+  <si>
+    <t>Target achieved?</t>
+  </si>
+  <si>
+    <t>Can the solution be deployed?</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Variance %</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verification Comments </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Assess countermeasures)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -515,124 +600,72 @@
     </r>
   </si>
   <si>
-    <t>Follow-up Actions</t>
+    <r>
+      <t xml:space="preserve">Controls Required </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(SOP, training, audits, SPC charts, visual controls, mistake proofing, PM, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Additional documents can be attached to this form including the after photos</t>
+  </si>
+  <si>
+    <t>Signatures:</t>
+  </si>
+  <si>
+    <t>Leader:</t>
+  </si>
+  <si>
+    <t>Analyst:</t>
+  </si>
+  <si>
+    <t>Process Owner:</t>
   </si>
   <si>
     <t>Champion:</t>
   </si>
   <si>
-    <t>Additional documents can be attached to this form including the after photos</t>
-  </si>
-  <si>
-    <t>Determine best parts</t>
-  </si>
-  <si>
-    <t>Smaller, better functioning device</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Finding parts</t>
-  </si>
-  <si>
-    <t>Haven't contacted engineering sales</t>
-  </si>
-  <si>
-    <t>[Still need best parts]</t>
-  </si>
-  <si>
-    <t>Research current devices and what they use</t>
-  </si>
-  <si>
-    <t>Research current devices</t>
-  </si>
-  <si>
-    <t>Find best websites</t>
-  </si>
-  <si>
-    <t>2. Contact engineering sales to reduce time until reply</t>
-  </si>
-  <si>
-    <t>3. Research current devices and parts to get better idea of products</t>
-  </si>
-  <si>
-    <t>1. Find best supplier websites</t>
-  </si>
-  <si>
-    <t>Still need to contact the last 3 on Bimle's list and search the websites thoroughly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produce horizontally directed tubular structures with a flat side to lay on, and a curve that follows the jaw line (curve concave). Make both ends of the necklace attach to the necklace so that it is less likely to flop around and hit you in the face. Round ones can work, but the pendant should still be in the middle with two opposite attachment points for the necklace. </t>
-  </si>
-  <si>
-    <t>Hi, I am looking for microblowers or miniature air pumps for a smart necklace that emits a scent in a controlled fashion in response to certain criteria. In this order of importance, I am looking for pumps that are as small as possible, quiet, and have low power consumption. Generating high amount of pressure is not necessary. It would be nice if it could tolerate the passage of essential oil vapor through the pump, but it is not mandatory as I can use a separate valve instead. I don't have an exact specificatin for flow rate, but it needs to be enough to blow the scent from a wick on the necklace to the wearer's nose.</t>
-  </si>
-  <si>
-    <t>Contact engineering salespeople - pumps, battery, valves</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>Diaphragm Pumps | KNF</t>
-  </si>
-  <si>
-    <t>Gas Pumps (schwarzer.com)</t>
-  </si>
-  <si>
-    <t>ask about power consumption, design choices, technical requirements, etc. with PCB designer</t>
-  </si>
-  <si>
-    <t>CurieJet</t>
-  </si>
-  <si>
-    <t>Contacted</t>
-  </si>
-  <si>
-    <t>pumps are too big</t>
-  </si>
-  <si>
-    <t>contact 9-5 - left message</t>
-  </si>
-  <si>
-    <t>Takasago</t>
-  </si>
-  <si>
-    <t>email response</t>
-  </si>
-  <si>
-    <t>Contacted Companies</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>None yet</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>call/email response</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>https://mail.google.com/mail/u/0/#inbox/FMfcgzGxRxDZPRFztpSmjqpnztwrMtDv</t>
-  </si>
-  <si>
-    <t>respond with fan/pump flowrate and hole size</t>
+    <t>Continuous Improvement Toolkit . www.citoolkit.com</t>
+  </si>
+  <si>
+    <t>Guide:</t>
+  </si>
+  <si>
+    <t>The A3 Template provides a simple and consistent approach to problem solving throughout the organization using the logical thinking process.</t>
+  </si>
+  <si>
+    <t>It is an effective way in bringing together many of the tools used in problem solving and process improvement.</t>
+  </si>
+  <si>
+    <t>It is composed of a sequence of sections:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 - Establish the business context and describe the current and the target conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2- Establish causality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3- Identify and develop countermeasures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4- Verify results and create a follow-up process.</t>
+  </si>
+  <si>
+    <t>need to respond with fan/pump flowrate and hole size</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>Pelonis</t>
   </si>
 </sst>
 </file>
@@ -855,7 +888,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1563,45 +1596,75 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1609,7 +1672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2024,6 +2087,30 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2039,56 +2126,32 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -2139,6 +2202,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2157,9 +2235,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2224,8 +2299,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="584835" y="3962400"/>
-          <a:ext cx="4711065" cy="1809750"/>
+          <a:off x="598170" y="3992880"/>
+          <a:ext cx="4758690" cy="1828800"/>
           <a:chOff x="355" y="344"/>
           <a:chExt cx="584" cy="359"/>
         </a:xfrm>
@@ -2490,8 +2565,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="584835" y="4476750"/>
-          <a:ext cx="3472815" cy="1809750"/>
+          <a:off x="598170" y="4511040"/>
+          <a:ext cx="3478530" cy="1828800"/>
           <a:chOff x="355" y="344"/>
           <a:chExt cx="584" cy="359"/>
         </a:xfrm>
@@ -2724,6 +2799,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3102,10 +3181,10 @@
     <tabColor indexed="41"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Q82"/>
+  <dimension ref="B2:V82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3116,8 +3195,11 @@
     <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="0.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="14" width="11.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="1.7109375" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
@@ -3137,8 +3219,8 @@
       <c r="O2" s="100"/>
     </row>
     <row r="3" spans="2:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="150" t="s">
-        <v>40</v>
+      <c r="B3" s="158" t="s">
+        <v>0</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="23"/>
@@ -3147,10 +3229,10 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="J3" s="97" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K3" s="98"/>
       <c r="L3" s="98"/>
@@ -3160,10 +3242,10 @@
       <c r="P3" s="101"/>
     </row>
     <row r="4" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="150"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="2"/>
       <c r="D4" s="181" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" s="170"/>
       <c r="F4" s="170"/>
@@ -3171,22 +3253,22 @@
       <c r="H4" s="170"/>
       <c r="I4" s="171"/>
       <c r="J4" s="82" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K4" s="83"/>
       <c r="L4" s="84"/>
       <c r="M4" s="83" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="N4" s="83"/>
       <c r="O4" s="84"/>
       <c r="P4" s="101"/>
     </row>
     <row r="5" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="150"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="2"/>
       <c r="D5" s="43" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
@@ -3206,10 +3288,10 @@
       <c r="P5" s="101"/>
     </row>
     <row r="6" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="150"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="2"/>
       <c r="D6" s="182" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="E6" s="183"/>
       <c r="F6" s="183"/>
@@ -3217,7 +3299,7 @@
       <c r="H6" s="183"/>
       <c r="I6" s="184"/>
       <c r="J6" s="185" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K6" s="183"/>
       <c r="L6" s="186"/>
@@ -3227,7 +3309,7 @@
       <c r="P6" s="101"/>
     </row>
     <row r="7" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="150"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="2"/>
       <c r="D7" s="174"/>
       <c r="E7" s="175"/>
@@ -3237,85 +3319,85 @@
       <c r="I7" s="176"/>
       <c r="J7" s="25"/>
       <c r="K7" s="6" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L7" s="85" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="87" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="O7" s="33"/>
       <c r="P7" s="101"/>
     </row>
     <row r="8" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="150"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="2"/>
       <c r="D8" s="177"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
       <c r="I8" s="178"/>
       <c r="J8" s="19"/>
       <c r="K8" s="6" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L8" s="86" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="86" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="O8" s="33"/>
       <c r="P8" s="101"/>
     </row>
     <row r="9" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="150"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="2"/>
       <c r="D9" s="177"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
       <c r="I9" s="178"/>
       <c r="J9" s="19"/>
       <c r="K9" s="6"/>
       <c r="L9" s="86" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="86" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O9" s="33"/>
       <c r="P9" s="101"/>
     </row>
     <row r="10" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="150"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="2"/>
       <c r="D10" s="177"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
       <c r="I10" s="178"/>
       <c r="J10" s="19"/>
       <c r="K10" s="6"/>
       <c r="L10" s="86" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="86" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O10" s="33"/>
       <c r="P10" s="101"/>
     </row>
     <row r="11" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="150"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="2"/>
       <c r="D11" s="179"/>
       <c r="E11" s="161"/>
@@ -3332,31 +3414,31 @@
       <c r="P11" s="101"/>
     </row>
     <row r="12" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="150"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="153" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="154" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="155"/>
+      <c r="D12" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="190"/>
       <c r="P12" s="101"/>
     </row>
     <row r="13" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="150"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="2"/>
       <c r="D13" s="174" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="E13" s="175"/>
       <c r="F13" s="175"/>
@@ -3364,7 +3446,7 @@
       <c r="H13" s="175"/>
       <c r="I13" s="176"/>
       <c r="J13" s="175" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="K13" s="175"/>
       <c r="L13" s="175"/>
@@ -3374,75 +3456,75 @@
       <c r="P13" s="101"/>
     </row>
     <row r="14" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="150"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="2"/>
       <c r="D14" s="177"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
       <c r="I14" s="178"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
       <c r="O14" s="178"/>
       <c r="P14" s="101"/>
     </row>
     <row r="15" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="150"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="2"/>
       <c r="D15" s="177"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
       <c r="I15" s="178"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="160"/>
+      <c r="M15" s="160"/>
+      <c r="N15" s="160"/>
       <c r="O15" s="178"/>
       <c r="P15" s="101"/>
     </row>
     <row r="16" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="150"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="2"/>
       <c r="D16" s="177"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
       <c r="I16" s="178"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="159"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="160"/>
       <c r="O16" s="178"/>
       <c r="P16" s="101"/>
     </row>
     <row r="17" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="150"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="2"/>
       <c r="D17" s="177"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
       <c r="I17" s="178"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="160"/>
+      <c r="L17" s="160"/>
+      <c r="M17" s="160"/>
+      <c r="N17" s="160"/>
       <c r="O17" s="178"/>
       <c r="P17" s="101"/>
     </row>
     <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="150"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="2"/>
       <c r="D18" s="179"/>
       <c r="E18" s="161"/>
@@ -3459,7 +3541,7 @@
       <c r="P18" s="101"/>
     </row>
     <row r="19" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="150"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="2"/>
       <c r="D19" s="104"/>
       <c r="E19" s="104"/>
@@ -3493,12 +3575,12 @@
       <c r="P21" s="101"/>
     </row>
     <row r="22" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="150" t="s">
-        <v>51</v>
+      <c r="B22" s="158" t="s">
+        <v>22</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="156" t="s">
-        <v>92</v>
+      <c r="D22" s="167" t="s">
+        <v>23</v>
       </c>
       <c r="E22" s="168"/>
       <c r="F22" s="168"/>
@@ -3506,7 +3588,7 @@
       <c r="H22" s="168"/>
       <c r="I22" s="169"/>
       <c r="J22" s="170" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="K22" s="170"/>
       <c r="L22" s="170"/>
@@ -3516,20 +3598,20 @@
       <c r="P22" s="101"/>
     </row>
     <row r="23" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="150"/>
+      <c r="B23" s="158"/>
       <c r="C23" s="2"/>
       <c r="D23" s="46"/>
       <c r="E23" s="3" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="56"/>
       <c r="J23" s="174" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="K23" s="175"/>
       <c r="L23" s="175"/>
@@ -3539,7 +3621,7 @@
       <c r="P23" s="101"/>
     </row>
     <row r="24" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="150"/>
+      <c r="B24" s="158"/>
       <c r="C24" s="2"/>
       <c r="D24" s="47"/>
       <c r="E24" s="4"/>
@@ -3548,7 +3630,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="54"/>
       <c r="J24" s="174" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="K24" s="175"/>
       <c r="L24" s="175"/>
@@ -3558,7 +3640,7 @@
       <c r="P24" s="101"/>
     </row>
     <row r="25" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="150"/>
+      <c r="B25" s="158"/>
       <c r="C25" s="2"/>
       <c r="D25" s="47"/>
       <c r="E25" s="4"/>
@@ -3567,17 +3649,17 @@
       <c r="H25" s="4"/>
       <c r="I25" s="54"/>
       <c r="J25" s="177" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25" s="159"/>
-      <c r="L25" s="159"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159"/>
+        <v>29</v>
+      </c>
+      <c r="K25" s="160"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
       <c r="O25" s="178"/>
       <c r="P25" s="101"/>
     </row>
     <row r="26" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="150"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="2"/>
       <c r="D26" s="47"/>
       <c r="E26" s="4"/>
@@ -3585,7 +3667,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="172" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="J26" s="91"/>
       <c r="K26" s="92"/>
@@ -3596,7 +3678,7 @@
       <c r="P26" s="101"/>
     </row>
     <row r="27" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="150"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="2"/>
       <c r="D27" s="47"/>
       <c r="E27" s="4"/>
@@ -3605,17 +3687,17 @@
       <c r="H27" s="4"/>
       <c r="I27" s="172"/>
       <c r="J27" s="177" t="s">
-        <v>110</v>
-      </c>
-      <c r="K27" s="159"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
+        <v>31</v>
+      </c>
+      <c r="K27" s="160"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="160"/>
       <c r="O27" s="178"/>
       <c r="P27" s="101"/>
     </row>
     <row r="28" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="150"/>
+      <c r="B28" s="158"/>
       <c r="C28" s="2"/>
       <c r="D28" s="47"/>
       <c r="E28" s="4"/>
@@ -3632,7 +3714,7 @@
       <c r="P28" s="101"/>
     </row>
     <row r="29" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="150"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="2"/>
       <c r="D29" s="47"/>
       <c r="E29" s="4"/>
@@ -3641,17 +3723,17 @@
       <c r="H29" s="4"/>
       <c r="I29" s="172"/>
       <c r="J29" s="177" t="s">
-        <v>112</v>
-      </c>
-      <c r="K29" s="159"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
+        <v>32</v>
+      </c>
+      <c r="K29" s="160"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="160"/>
       <c r="O29" s="178"/>
       <c r="P29" s="101"/>
     </row>
     <row r="30" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="150"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="2"/>
       <c r="D30" s="47"/>
       <c r="E30" s="4"/>
@@ -3660,15 +3742,15 @@
       <c r="H30" s="4"/>
       <c r="I30" s="172"/>
       <c r="J30" s="177"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="160"/>
       <c r="O30" s="178"/>
       <c r="P30" s="101"/>
     </row>
     <row r="31" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="150"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="2"/>
       <c r="D31" s="47"/>
       <c r="E31" s="4"/>
@@ -3677,15 +3759,15 @@
       <c r="H31" s="4"/>
       <c r="I31" s="53"/>
       <c r="J31" s="177"/>
-      <c r="K31" s="159"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="159"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="160"/>
       <c r="O31" s="178"/>
       <c r="P31" s="101"/>
     </row>
     <row r="32" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="150"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="2"/>
       <c r="D32" s="47"/>
       <c r="E32" s="4"/>
@@ -3694,15 +3776,15 @@
       <c r="H32" s="4"/>
       <c r="I32" s="54"/>
       <c r="J32" s="177"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
       <c r="O32" s="178"/>
       <c r="P32" s="101"/>
     </row>
-    <row r="33" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="150"/>
+    <row r="33" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="158"/>
       <c r="C33" s="2"/>
       <c r="D33" s="47"/>
       <c r="E33" s="4"/>
@@ -3711,21 +3793,21 @@
       <c r="H33" s="4"/>
       <c r="I33" s="54"/>
       <c r="J33" s="177"/>
-      <c r="K33" s="159"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="159"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="160"/>
+      <c r="M33" s="160"/>
+      <c r="N33" s="160"/>
       <c r="O33" s="178"/>
       <c r="P33" s="101"/>
     </row>
-    <row r="34" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="150"/>
+    <row r="34" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="158"/>
       <c r="C34" s="2"/>
       <c r="D34" s="48"/>
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
       <c r="G34" s="49" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="H34" s="49"/>
       <c r="I34" s="55"/>
@@ -3737,11 +3819,11 @@
       <c r="O34" s="180"/>
       <c r="P34" s="101"/>
       <c r="Q34" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="150"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="158"/>
       <c r="C35" s="2"/>
       <c r="D35" s="104"/>
       <c r="E35" s="104"/>
@@ -3757,10 +3839,10 @@
       <c r="O35" s="103"/>
       <c r="P35" s="101"/>
     </row>
-    <row r="36" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="18"/>
     </row>
-    <row r="37" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="18"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3777,46 +3859,46 @@
       <c r="O37" s="101"/>
       <c r="P37" s="101"/>
     </row>
-    <row r="38" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="150" t="s">
-        <v>60</v>
+    <row r="38" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="158" t="s">
+        <v>35</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="147" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="148"/>
-      <c r="M38" s="148"/>
-      <c r="N38" s="148"/>
-      <c r="O38" s="149"/>
+      <c r="D38" s="155" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="157"/>
       <c r="P38" s="101"/>
     </row>
-    <row r="39" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="150"/>
+    <row r="39" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="158"/>
       <c r="C39" s="2"/>
       <c r="D39" s="58" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="I39" s="57"/>
       <c r="J39" s="10" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="118"/>
@@ -3825,17 +3907,17 @@
       <c r="O39" s="57"/>
       <c r="P39" s="101"/>
     </row>
-    <row r="40" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="150"/>
+    <row r="40" spans="2:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="158"/>
       <c r="C40" s="2"/>
       <c r="D40" s="145" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="E40" s="120" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="F40" s="120" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="G40" s="120"/>
       <c r="H40" s="120"/>
@@ -3848,17 +3930,17 @@
       <c r="O40" s="122"/>
       <c r="P40" s="101"/>
     </row>
-    <row r="41" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="150"/>
+    <row r="41" spans="2:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="158"/>
       <c r="C41" s="2"/>
       <c r="D41" s="145" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="E41" s="127"/>
       <c r="F41" s="127"/>
       <c r="G41" s="127"/>
       <c r="H41" s="127" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="I41" s="129"/>
       <c r="J41" s="123"/>
@@ -3869,17 +3951,17 @@
       <c r="O41" s="126"/>
       <c r="P41" s="101"/>
     </row>
-    <row r="42" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="150"/>
+    <row r="42" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="158"/>
       <c r="C42" s="2"/>
       <c r="D42" s="134" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="E42" s="127" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="F42" s="127" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="G42" s="127"/>
       <c r="H42" s="127"/>
@@ -3892,17 +3974,17 @@
       <c r="O42" s="126"/>
       <c r="P42" s="101"/>
     </row>
-    <row r="43" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="150"/>
+    <row r="43" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="158"/>
       <c r="C43" s="2"/>
       <c r="D43" s="142" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="E43" s="143" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="F43" s="143" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="G43" s="143"/>
       <c r="H43" s="143"/>
@@ -3915,25 +3997,25 @@
       <c r="O43" s="126"/>
       <c r="P43" s="101"/>
     </row>
-    <row r="44" spans="2:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="B44" s="150"/>
+    <row r="44" spans="2:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="158"/>
       <c r="C44" s="2"/>
       <c r="D44" s="123" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="E44" s="124" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="F44" s="125" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="G44" s="123"/>
-      <c r="H44" s="195" t="s">
-        <v>134</v>
+      <c r="H44" s="146" t="s">
+        <v>142</v>
       </c>
       <c r="I44" s="125"/>
       <c r="J44" s="134" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="K44" s="124"/>
       <c r="L44" s="125"/>
@@ -3942,17 +4024,21 @@
       <c r="O44" s="126"/>
       <c r="P44" s="101"/>
     </row>
-    <row r="45" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="150"/>
+    <row r="45" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="158"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="163" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="157"/>
-      <c r="F45" s="157"/>
-      <c r="G45" s="157"/>
-      <c r="H45" s="157"/>
-      <c r="I45" s="164"/>
+      <c r="D45" s="142" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="143" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="144"/>
       <c r="J45" s="123"/>
       <c r="K45" s="124"/>
       <c r="L45" s="125"/>
@@ -3961,15 +4047,15 @@
       <c r="O45" s="126"/>
       <c r="P45" s="101"/>
     </row>
-    <row r="46" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="150"/>
+    <row r="46" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="158"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="165"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="167"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="144"/>
       <c r="J46" s="127"/>
       <c r="K46" s="127"/>
       <c r="L46" s="128"/>
@@ -3978,12 +4064,18 @@
       <c r="O46" s="129"/>
       <c r="P46" s="101"/>
     </row>
-    <row r="47" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="150"/>
+    <row r="47" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="158"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
+      <c r="D47" s="123" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="124" t="s">
+        <v>44</v>
+      </c>
       <c r="G47" s="124"/>
       <c r="H47" s="124"/>
       <c r="I47" s="126"/>
@@ -3994,9 +4086,10 @@
       <c r="N47" s="124"/>
       <c r="O47" s="126"/>
       <c r="P47" s="101"/>
-    </row>
-    <row r="48" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="150"/>
+      <c r="V47" s="153"/>
+    </row>
+    <row r="48" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="158"/>
       <c r="C48" s="2"/>
       <c r="D48" s="130"/>
       <c r="E48" s="131"/>
@@ -4013,63 +4106,67 @@
       <c r="P48" s="101"/>
     </row>
     <row r="49" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="150"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="153" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="154"/>
-      <c r="F49" s="154"/>
-      <c r="G49" s="154"/>
-      <c r="H49" s="154"/>
-      <c r="I49" s="154"/>
-      <c r="J49" s="154"/>
-      <c r="K49" s="154"/>
-      <c r="L49" s="154"/>
-      <c r="M49" s="154"/>
-      <c r="N49" s="154"/>
-      <c r="O49" s="155"/>
+      <c r="D49" s="162" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="163"/>
+      <c r="F49" s="163"/>
+      <c r="G49" s="163"/>
+      <c r="H49" s="163"/>
+      <c r="I49" s="163"/>
+      <c r="J49" s="147" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="27"/>
       <c r="P49" s="101"/>
     </row>
     <row r="50" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="150"/>
+      <c r="B50" s="158"/>
       <c r="C50" s="2"/>
       <c r="D50" s="58" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="118"/>
       <c r="H50" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="118"/>
-      <c r="J50" s="10" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="I50" s="10"/>
+      <c r="J50" s="148" t="s">
+        <v>59</v>
       </c>
       <c r="K50" s="118"/>
       <c r="L50" s="10" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="M50" s="118"/>
       <c r="N50" s="10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O50" s="57"/>
       <c r="P50" s="101"/>
     </row>
     <row r="51" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="150"/>
+      <c r="B51" s="158"/>
       <c r="C51" s="2"/>
       <c r="D51" s="119" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="E51" s="120"/>
       <c r="F51" s="120"/>
       <c r="G51" s="121"/>
       <c r="H51" s="120"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="149" t="s">
+        <v>63</v>
+      </c>
       <c r="K51" s="121"/>
       <c r="L51" s="120"/>
       <c r="M51" s="121"/>
@@ -4078,17 +4175,19 @@
       <c r="P51" s="101"/>
     </row>
     <row r="52" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="150"/>
+      <c r="B52" s="158"/>
       <c r="C52" s="2"/>
       <c r="D52" s="123" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="E52" s="127"/>
       <c r="F52" s="127"/>
       <c r="G52" s="128"/>
       <c r="H52" s="127"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="150" t="s">
+        <v>65</v>
+      </c>
       <c r="K52" s="128"/>
       <c r="L52" s="127"/>
       <c r="M52" s="128"/>
@@ -4097,34 +4196,40 @@
       <c r="P52" s="101"/>
     </row>
     <row r="53" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="150"/>
+      <c r="B53" s="158"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="123"/>
+      <c r="D53" s="123" t="s">
+        <v>54</v>
+      </c>
       <c r="E53" s="124"/>
       <c r="F53" s="124"/>
       <c r="G53" s="125"/>
       <c r="H53" s="124"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="124"/>
-      <c r="K53" s="125"/>
-      <c r="L53" s="124"/>
-      <c r="M53" s="125"/>
-      <c r="N53" s="124"/>
-      <c r="O53" s="126"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="165"/>
+      <c r="L53" s="165"/>
+      <c r="M53" s="165"/>
+      <c r="N53" s="165"/>
+      <c r="O53" s="166"/>
       <c r="P53" s="101"/>
     </row>
     <row r="54" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="150"/>
+      <c r="B54" s="158"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="157" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="124"/>
+      <c r="D54" s="159" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="159"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="159"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="151" t="s">
+        <v>68</v>
+      </c>
       <c r="K54" s="125"/>
       <c r="L54" s="124"/>
       <c r="M54" s="125"/>
@@ -4133,15 +4238,17 @@
       <c r="P54" s="101"/>
     </row>
     <row r="55" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="150"/>
+      <c r="B55" s="158"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="159"/>
-      <c r="E55" s="159"/>
-      <c r="F55" s="159"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="159"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="160"/>
       <c r="I55" s="160"/>
-      <c r="J55" s="124"/>
+      <c r="J55" s="151" t="s">
+        <v>69</v>
+      </c>
       <c r="K55" s="125"/>
       <c r="L55" s="124"/>
       <c r="M55" s="125"/>
@@ -4150,15 +4257,17 @@
       <c r="P55" s="101"/>
     </row>
     <row r="56" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="150"/>
+      <c r="B56" s="158"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="159"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="160"/>
       <c r="I56" s="160"/>
-      <c r="J56" s="124"/>
+      <c r="J56" s="151" t="s">
+        <v>70</v>
+      </c>
       <c r="K56" s="125"/>
       <c r="L56" s="124"/>
       <c r="M56" s="125"/>
@@ -4167,15 +4276,15 @@
       <c r="P56" s="101"/>
     </row>
     <row r="57" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="150"/>
+      <c r="B57" s="158"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="159"/>
-      <c r="F57" s="159"/>
-      <c r="G57" s="159"/>
-      <c r="H57" s="159"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="160"/>
+      <c r="G57" s="160"/>
+      <c r="H57" s="160"/>
       <c r="I57" s="160"/>
-      <c r="J57" s="124"/>
+      <c r="J57" s="151"/>
       <c r="K57" s="125"/>
       <c r="L57" s="124"/>
       <c r="M57" s="125"/>
@@ -4184,15 +4293,15 @@
       <c r="P57" s="101"/>
     </row>
     <row r="58" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="150"/>
+      <c r="B58" s="158"/>
       <c r="C58" s="2"/>
       <c r="D58" s="161"/>
       <c r="E58" s="161"/>
       <c r="F58" s="161"/>
       <c r="G58" s="161"/>
       <c r="H58" s="161"/>
-      <c r="I58" s="162"/>
-      <c r="J58" s="131"/>
+      <c r="I58" s="161"/>
+      <c r="J58" s="152"/>
       <c r="K58" s="133"/>
       <c r="L58" s="131"/>
       <c r="M58" s="133"/>
@@ -4201,7 +4310,7 @@
       <c r="P58" s="101"/>
     </row>
     <row r="59" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="150"/>
+      <c r="B59" s="158"/>
       <c r="C59" s="2"/>
       <c r="D59" s="104"/>
       <c r="E59" s="104"/>
@@ -4236,19 +4345,19 @@
     </row>
     <row r="62" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="173" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="147" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="148"/>
-      <c r="F62" s="148"/>
-      <c r="G62" s="148"/>
-      <c r="H62" s="148"/>
-      <c r="I62" s="149"/>
+      <c r="D62" s="155" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="157"/>
       <c r="J62" s="81" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="K62" s="79"/>
       <c r="L62" s="79"/>
@@ -4267,18 +4376,18 @@
       <c r="H63" s="89"/>
       <c r="I63" s="90"/>
       <c r="J63" s="58" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="118"/>
       <c r="M63" s="135" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N63" s="135" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="O63" s="57" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P63" s="101"/>
     </row>
@@ -4422,18 +4531,18 @@
       <c r="D72" s="14"/>
     </row>
     <row r="73" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="D73" s="146"/>
-      <c r="E73" s="146"/>
-      <c r="F73" s="146"/>
-      <c r="G73" s="146"/>
-      <c r="H73" s="146"/>
-      <c r="I73" s="146"/>
-      <c r="J73" s="146"/>
-      <c r="K73" s="146"/>
-      <c r="L73" s="146"/>
-      <c r="M73" s="146"/>
-      <c r="N73" s="146"/>
-      <c r="O73" s="146"/>
+      <c r="D73" s="154"/>
+      <c r="E73" s="154"/>
+      <c r="F73" s="154"/>
+      <c r="G73" s="154"/>
+      <c r="H73" s="154"/>
+      <c r="I73" s="154"/>
+      <c r="J73" s="154"/>
+      <c r="K73" s="154"/>
+      <c r="L73" s="154"/>
+      <c r="M73" s="154"/>
+      <c r="N73" s="154"/>
+      <c r="O73" s="154"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D75" s="30"/>
@@ -4484,9 +4593,9 @@
     <mergeCell ref="D73:O73"/>
     <mergeCell ref="D62:I62"/>
     <mergeCell ref="B38:B59"/>
-    <mergeCell ref="D49:O49"/>
     <mergeCell ref="D54:I58"/>
-    <mergeCell ref="D45:I46"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="J53:O53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D40" r:id="rId1" display="https://knf.com/en/us/solutions/pumps?tx_products_oemlist%5Bcontroller%5D=Series&amp;tx_products_oemlist%5Bpage%5D=3&amp;cHash=a4aa78e1b54e65ab16ba7083456b529f" xr:uid="{ACF47C49-8A9C-4B23-8D0A-D63F3C9E13C0}"/>
@@ -4508,7 +4617,7 @@
   </sheetPr>
   <dimension ref="B2:P95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4523,33 +4632,33 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D2" s="99" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E2" s="100"/>
       <c r="F2" s="99" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="G2" s="100"/>
       <c r="H2" s="99" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I2" s="100"/>
       <c r="J2" s="99" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="K2" s="100"/>
       <c r="L2" s="99" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="M2" s="100"/>
       <c r="N2" s="99" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="O2" s="100"/>
     </row>
     <row r="3" spans="2:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="150" t="s">
-        <v>40</v>
+      <c r="B3" s="158" t="s">
+        <v>0</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="23"/>
@@ -4558,10 +4667,10 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="107" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="J3" s="97" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K3" s="98"/>
       <c r="L3" s="98"/>
@@ -4571,10 +4680,10 @@
       <c r="P3" s="101"/>
     </row>
     <row r="4" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="150"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="2"/>
       <c r="D4" s="181" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" s="170"/>
       <c r="F4" s="170"/>
@@ -4582,7 +4691,7 @@
       <c r="H4" s="170"/>
       <c r="I4" s="171"/>
       <c r="J4" s="181" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="K4" s="170"/>
       <c r="L4" s="170"/>
@@ -4592,7 +4701,7 @@
       <c r="P4" s="101"/>
     </row>
     <row r="5" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="150"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="2"/>
       <c r="D5" s="43"/>
       <c r="E5" s="44"/>
@@ -4609,32 +4718,32 @@
       <c r="P5" s="101"/>
     </row>
     <row r="6" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="150"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="2"/>
       <c r="D6" s="32" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="26" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="27"/>
       <c r="J6" s="32" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="27"/>
       <c r="M6" s="26" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="N6" s="26"/>
       <c r="O6" s="27"/>
       <c r="P6" s="101"/>
     </row>
     <row r="7" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="150"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="2"/>
       <c r="D7" s="43"/>
       <c r="E7" s="44"/>
@@ -4651,18 +4760,18 @@
       <c r="P7" s="101"/>
     </row>
     <row r="8" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="150"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="2"/>
       <c r="D8" s="182" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E8" s="183"/>
       <c r="F8" s="183"/>
       <c r="G8" s="183"/>
       <c r="H8" s="183"/>
       <c r="I8" s="184"/>
-      <c r="J8" s="194" t="s">
-        <v>10</v>
+      <c r="J8" s="199" t="s">
+        <v>8</v>
       </c>
       <c r="K8" s="183"/>
       <c r="L8" s="186"/>
@@ -4672,7 +4781,7 @@
       <c r="P8" s="101"/>
     </row>
     <row r="9" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="150"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="2"/>
       <c r="D9" s="174"/>
       <c r="E9" s="175"/>
@@ -4683,80 +4792,80 @@
       <c r="J9" s="111"/>
       <c r="K9" s="6"/>
       <c r="L9" s="85" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="87" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="O9" s="33"/>
       <c r="P9" s="101"/>
     </row>
     <row r="10" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="150"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="2"/>
       <c r="D10" s="177"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
       <c r="I10" s="178"/>
       <c r="J10" s="112"/>
       <c r="K10" s="6"/>
       <c r="L10" s="86" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="86" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="O10" s="33"/>
       <c r="P10" s="101"/>
     </row>
     <row r="11" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="150"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="2"/>
       <c r="D11" s="177"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
       <c r="I11" s="178"/>
       <c r="J11" s="112"/>
       <c r="K11" s="6"/>
       <c r="L11" s="86" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="86" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O11" s="33"/>
       <c r="P11" s="101"/>
     </row>
     <row r="12" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="150"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="2"/>
       <c r="D12" s="177"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
       <c r="I12" s="178"/>
       <c r="J12" s="112"/>
       <c r="K12" s="6"/>
       <c r="L12" s="86" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="86" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O12" s="33"/>
       <c r="P12" s="101"/>
     </row>
     <row r="13" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="150"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="2"/>
       <c r="D13" s="179"/>
       <c r="E13" s="161"/>
@@ -4773,28 +4882,28 @@
       <c r="P13" s="101"/>
     </row>
     <row r="14" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="150"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="153" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="153" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="155"/>
+      <c r="D14" s="188" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="188" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="190"/>
       <c r="P14" s="101"/>
     </row>
     <row r="15" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="150"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="2"/>
       <c r="D15" s="174"/>
       <c r="E15" s="175"/>
@@ -4811,41 +4920,41 @@
       <c r="P15" s="101"/>
     </row>
     <row r="16" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="150"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="2"/>
       <c r="D16" s="177"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
       <c r="I16" s="178"/>
       <c r="J16" s="177"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="159"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="160"/>
       <c r="O16" s="178"/>
       <c r="P16" s="101"/>
     </row>
     <row r="17" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="150"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="2"/>
       <c r="D17" s="177"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
       <c r="I17" s="178"/>
       <c r="J17" s="177"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
+      <c r="K17" s="160"/>
+      <c r="L17" s="160"/>
+      <c r="M17" s="160"/>
+      <c r="N17" s="160"/>
       <c r="O17" s="178"/>
       <c r="P17" s="101"/>
     </row>
     <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="150"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="2"/>
       <c r="D18" s="179"/>
       <c r="E18" s="161"/>
@@ -4862,26 +4971,26 @@
       <c r="P18" s="101"/>
     </row>
     <row r="19" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="150"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="147" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="149"/>
+      <c r="D19" s="155" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="157"/>
       <c r="P19" s="101"/>
     </row>
     <row r="20" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="150"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="2"/>
       <c r="D20" s="34"/>
       <c r="E20" s="17"/>
@@ -4898,7 +5007,7 @@
       <c r="P20" s="101"/>
     </row>
     <row r="21" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="150"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="2"/>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
@@ -4915,7 +5024,7 @@
       <c r="P21" s="101"/>
     </row>
     <row r="22" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="150"/>
+      <c r="B22" s="158"/>
       <c r="C22" s="2"/>
       <c r="D22" s="104"/>
       <c r="E22" s="104"/>
@@ -4933,10 +5042,10 @@
     </row>
     <row r="23" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="117" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="N23" s="109" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="O23" s="110"/>
       <c r="P23" s="101"/>
@@ -4959,30 +5068,30 @@
       <c r="P25" s="101"/>
     </row>
     <row r="26" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="150" t="s">
-        <v>51</v>
+      <c r="B26" s="158" t="s">
+        <v>22</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="156" t="s">
-        <v>64</v>
+      <c r="D26" s="167" t="s">
+        <v>91</v>
       </c>
       <c r="E26" s="168"/>
       <c r="F26" s="168"/>
       <c r="G26" s="168"/>
       <c r="H26" s="168"/>
       <c r="I26" s="169"/>
-      <c r="J26" s="191" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
-      <c r="M26" s="192"/>
-      <c r="N26" s="192"/>
-      <c r="O26" s="193"/>
+      <c r="J26" s="196" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="197"/>
+      <c r="L26" s="197"/>
+      <c r="M26" s="197"/>
+      <c r="N26" s="197"/>
+      <c r="O26" s="198"/>
       <c r="P26" s="101"/>
     </row>
     <row r="27" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="150"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="2"/>
       <c r="D27" s="46"/>
       <c r="E27" s="3"/>
@@ -4991,7 +5100,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="56"/>
       <c r="J27" s="114" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -5001,7 +5110,7 @@
       <c r="P27" s="101"/>
     </row>
     <row r="28" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="150"/>
+      <c r="B28" s="158"/>
       <c r="C28" s="2"/>
       <c r="D28" s="47"/>
       <c r="E28" s="4"/>
@@ -5010,7 +5119,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="54"/>
       <c r="J28" s="114" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -5020,7 +5129,7 @@
       <c r="P28" s="101"/>
     </row>
     <row r="29" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="150"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="2"/>
       <c r="D29" s="47"/>
       <c r="E29" s="4"/>
@@ -5029,7 +5138,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="54"/>
       <c r="J29" s="114" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -5039,7 +5148,7 @@
       <c r="P29" s="101"/>
     </row>
     <row r="30" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="150"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="2"/>
       <c r="D30" s="47"/>
       <c r="E30" s="4"/>
@@ -5047,10 +5156,10 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="172" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="J30" s="114" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -5060,7 +5169,7 @@
       <c r="P30" s="101"/>
     </row>
     <row r="31" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="150"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="2"/>
       <c r="D31" s="47"/>
       <c r="E31" s="4"/>
@@ -5069,7 +5178,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="172"/>
       <c r="J31" s="115" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -5079,7 +5188,7 @@
       <c r="P31" s="101"/>
     </row>
     <row r="32" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="150"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="2"/>
       <c r="D32" s="47"/>
       <c r="E32" s="4"/>
@@ -5088,7 +5197,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="172"/>
       <c r="J32" s="181" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="K32" s="170"/>
       <c r="L32" s="170"/>
@@ -5098,7 +5207,7 @@
       <c r="P32" s="101"/>
     </row>
     <row r="33" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="150"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="2"/>
       <c r="D33" s="47"/>
       <c r="E33" s="4"/>
@@ -5115,7 +5224,7 @@
       <c r="P33" s="101"/>
     </row>
     <row r="34" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="150"/>
+      <c r="B34" s="158"/>
       <c r="C34" s="2"/>
       <c r="D34" s="47"/>
       <c r="E34" s="4"/>
@@ -5124,15 +5233,15 @@
       <c r="H34" s="4"/>
       <c r="I34" s="172"/>
       <c r="J34" s="177"/>
-      <c r="K34" s="159"/>
-      <c r="L34" s="159"/>
-      <c r="M34" s="159"/>
-      <c r="N34" s="159"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="160"/>
       <c r="O34" s="178"/>
       <c r="P34" s="101"/>
     </row>
     <row r="35" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="150"/>
+      <c r="B35" s="158"/>
       <c r="C35" s="2"/>
       <c r="D35" s="47"/>
       <c r="E35" s="4"/>
@@ -5141,15 +5250,15 @@
       <c r="H35" s="4"/>
       <c r="I35" s="53"/>
       <c r="J35" s="177"/>
-      <c r="K35" s="159"/>
-      <c r="L35" s="159"/>
-      <c r="M35" s="159"/>
-      <c r="N35" s="159"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="160"/>
+      <c r="N35" s="160"/>
       <c r="O35" s="178"/>
       <c r="P35" s="101"/>
     </row>
     <row r="36" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="150"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="2"/>
       <c r="D36" s="47"/>
       <c r="E36" s="4"/>
@@ -5158,15 +5267,15 @@
       <c r="H36" s="4"/>
       <c r="I36" s="54"/>
       <c r="J36" s="177"/>
-      <c r="K36" s="159"/>
-      <c r="L36" s="159"/>
-      <c r="M36" s="159"/>
-      <c r="N36" s="159"/>
+      <c r="K36" s="160"/>
+      <c r="L36" s="160"/>
+      <c r="M36" s="160"/>
+      <c r="N36" s="160"/>
       <c r="O36" s="178"/>
       <c r="P36" s="101"/>
     </row>
     <row r="37" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="150"/>
+      <c r="B37" s="158"/>
       <c r="C37" s="2"/>
       <c r="D37" s="47"/>
       <c r="E37" s="4"/>
@@ -5183,7 +5292,7 @@
       <c r="P37" s="101"/>
     </row>
     <row r="38" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="150"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="2"/>
       <c r="D38" s="48"/>
       <c r="E38" s="49"/>
@@ -5196,13 +5305,13 @@
       <c r="L38" s="50"/>
       <c r="M38" s="51"/>
       <c r="N38" s="51" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="O38" s="139"/>
       <c r="P38" s="101"/>
     </row>
     <row r="39" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="150"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="2"/>
       <c r="D39" s="104"/>
       <c r="E39" s="104"/>
@@ -5221,10 +5330,10 @@
     <row r="40" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="18"/>
       <c r="D40" s="117" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="N40" s="109" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="O40" s="110"/>
       <c r="P40" s="101"/>
@@ -5250,59 +5359,59 @@
       <c r="P42" s="101"/>
     </row>
     <row r="43" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="150" t="s">
-        <v>60</v>
+      <c r="B43" s="158" t="s">
+        <v>35</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="62"/>
       <c r="E43" s="63"/>
       <c r="F43" s="63"/>
       <c r="G43" s="64" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="H43" s="65"/>
       <c r="I43" s="66"/>
-      <c r="J43" s="156" t="s">
-        <v>67</v>
-      </c>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="152"/>
+      <c r="J43" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="K43" s="191"/>
+      <c r="L43" s="191"/>
+      <c r="M43" s="191"/>
+      <c r="N43" s="191"/>
+      <c r="O43" s="192"/>
       <c r="P43" s="101"/>
     </row>
     <row r="44" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="150"/>
+      <c r="B44" s="158"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="153" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="154"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="155"/>
+      <c r="D44" s="188" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="189"/>
+      <c r="F44" s="189"/>
+      <c r="G44" s="189"/>
+      <c r="H44" s="189"/>
+      <c r="I44" s="190"/>
       <c r="J44" s="58" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="15" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="O44" s="57" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="P44" s="101"/>
     </row>
     <row r="45" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="150"/>
+      <c r="B45" s="158"/>
       <c r="C45" s="2"/>
       <c r="D45" s="174"/>
       <c r="E45" s="175"/>
@@ -5319,13 +5428,13 @@
       <c r="P45" s="101"/>
     </row>
     <row r="46" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="150"/>
+      <c r="B46" s="158"/>
       <c r="C46" s="2"/>
       <c r="D46" s="177"/>
-      <c r="E46" s="159"/>
-      <c r="F46" s="159"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="159"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="160"/>
       <c r="I46" s="178"/>
       <c r="J46" s="59"/>
       <c r="K46" s="13"/>
@@ -5336,7 +5445,7 @@
       <c r="P46" s="101"/>
     </row>
     <row r="47" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="150"/>
+      <c r="B47" s="158"/>
       <c r="C47" s="2"/>
       <c r="D47" s="179"/>
       <c r="E47" s="161"/>
@@ -5353,16 +5462,16 @@
       <c r="P47" s="101"/>
     </row>
     <row r="48" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="150"/>
+      <c r="B48" s="158"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="153" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="154"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
-      <c r="I48" s="155"/>
+      <c r="D48" s="188" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="189"/>
+      <c r="F48" s="189"/>
+      <c r="G48" s="189"/>
+      <c r="H48" s="189"/>
+      <c r="I48" s="190"/>
       <c r="J48" s="59"/>
       <c r="K48" s="13"/>
       <c r="L48" s="16"/>
@@ -5372,7 +5481,7 @@
       <c r="P48" s="101"/>
     </row>
     <row r="49" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="150"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="2"/>
       <c r="D49" s="174"/>
       <c r="E49" s="175"/>
@@ -5389,13 +5498,13 @@
       <c r="P49" s="101"/>
     </row>
     <row r="50" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="150"/>
+      <c r="B50" s="158"/>
       <c r="C50" s="2"/>
       <c r="D50" s="177"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="159"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="160"/>
       <c r="I50" s="178"/>
       <c r="J50" s="59"/>
       <c r="K50" s="13"/>
@@ -5406,7 +5515,7 @@
       <c r="P50" s="101"/>
     </row>
     <row r="51" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="150"/>
+      <c r="B51" s="158"/>
       <c r="C51" s="2"/>
       <c r="D51" s="179"/>
       <c r="E51" s="161"/>
@@ -5423,10 +5532,10 @@
       <c r="P51" s="101"/>
     </row>
     <row r="52" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="150"/>
+      <c r="B52" s="158"/>
       <c r="C52" s="2"/>
       <c r="D52" s="181" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E52" s="170"/>
       <c r="F52" s="170"/>
@@ -5442,32 +5551,32 @@
       <c r="P52" s="101"/>
     </row>
     <row r="53" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="150"/>
+      <c r="B53" s="158"/>
       <c r="C53" s="2"/>
       <c r="D53" s="58" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="12"/>
       <c r="G53" s="10" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="12"/>
       <c r="J53" s="10" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="12"/>
       <c r="M53" s="10" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="N53" s="10"/>
       <c r="O53" s="57"/>
       <c r="P53" s="101"/>
     </row>
     <row r="54" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="150"/>
+      <c r="B54" s="158"/>
       <c r="C54" s="2"/>
       <c r="D54" s="59"/>
       <c r="E54" s="5"/>
@@ -5484,7 +5593,7 @@
       <c r="P54" s="101"/>
     </row>
     <row r="55" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="150"/>
+      <c r="B55" s="158"/>
       <c r="C55" s="2"/>
       <c r="D55" s="59"/>
       <c r="E55" s="5"/>
@@ -5501,7 +5610,7 @@
       <c r="P55" s="101"/>
     </row>
     <row r="56" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="150"/>
+      <c r="B56" s="158"/>
       <c r="C56" s="2"/>
       <c r="D56" s="36"/>
       <c r="E56" s="38"/>
@@ -5518,10 +5627,10 @@
       <c r="P56" s="101"/>
     </row>
     <row r="57" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="150"/>
+      <c r="B57" s="158"/>
       <c r="C57" s="2"/>
       <c r="D57" s="181" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="E57" s="170"/>
       <c r="F57" s="170"/>
@@ -5537,34 +5646,34 @@
       <c r="P57" s="101"/>
     </row>
     <row r="58" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="150"/>
+      <c r="B58" s="158"/>
       <c r="C58" s="2"/>
       <c r="D58" s="58" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="11"/>
       <c r="G58" s="12"/>
       <c r="H58" s="10" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="10" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K58" s="12"/>
       <c r="L58" s="10" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O58" s="57"/>
       <c r="P58" s="101"/>
     </row>
     <row r="59" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="150"/>
+      <c r="B59" s="158"/>
       <c r="C59" s="2"/>
       <c r="D59" s="59"/>
       <c r="E59" s="5"/>
@@ -5581,7 +5690,7 @@
       <c r="P59" s="101"/>
     </row>
     <row r="60" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="150"/>
+      <c r="B60" s="158"/>
       <c r="C60" s="2"/>
       <c r="D60" s="59"/>
       <c r="E60" s="5"/>
@@ -5598,7 +5707,7 @@
       <c r="P60" s="101"/>
     </row>
     <row r="61" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="150"/>
+      <c r="B61" s="158"/>
       <c r="C61" s="2"/>
       <c r="D61" s="59"/>
       <c r="E61" s="5"/>
@@ -5615,7 +5724,7 @@
       <c r="P61" s="101"/>
     </row>
     <row r="62" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="150"/>
+      <c r="B62" s="158"/>
       <c r="C62" s="2"/>
       <c r="D62" s="59"/>
       <c r="E62" s="5"/>
@@ -5632,7 +5741,7 @@
       <c r="P62" s="101"/>
     </row>
     <row r="63" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="150"/>
+      <c r="B63" s="158"/>
       <c r="C63" s="2"/>
       <c r="D63" s="36"/>
       <c r="E63" s="38"/>
@@ -5649,7 +5758,7 @@
       <c r="P63" s="101"/>
     </row>
     <row r="64" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="150"/>
+      <c r="B64" s="158"/>
       <c r="C64" s="2"/>
       <c r="D64" s="104"/>
       <c r="E64" s="104"/>
@@ -5667,10 +5776,10 @@
     </row>
     <row r="65" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="117" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="N65" s="109" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="O65" s="110"/>
       <c r="P65" s="101"/>
@@ -5694,27 +5803,27 @@
     </row>
     <row r="68" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="173" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="67"/>
       <c r="E68" s="68" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F68" s="69"/>
       <c r="G68" s="70"/>
       <c r="H68" s="68" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="I68" s="73"/>
-      <c r="J68" s="156" t="s">
-        <v>55</v>
-      </c>
-      <c r="K68" s="151"/>
-      <c r="L68" s="151"/>
-      <c r="M68" s="151"/>
-      <c r="N68" s="151"/>
-      <c r="O68" s="152"/>
+      <c r="J68" s="167" t="s">
+        <v>117</v>
+      </c>
+      <c r="K68" s="191"/>
+      <c r="L68" s="191"/>
+      <c r="M68" s="191"/>
+      <c r="N68" s="191"/>
+      <c r="O68" s="192"/>
       <c r="P68" s="101"/>
     </row>
     <row r="69" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -5722,43 +5831,43 @@
       <c r="C69" s="2"/>
       <c r="D69" s="74"/>
       <c r="E69" s="75" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="F69" s="76"/>
       <c r="G69" s="77"/>
       <c r="H69" s="75" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="I69" s="78"/>
       <c r="J69" s="58" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="K69" s="12"/>
       <c r="L69" s="12" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="O69" s="57" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="P69" s="101"/>
     </row>
     <row r="70" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="173"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="188" t="s">
-        <v>45</v>
-      </c>
-      <c r="E70" s="189"/>
-      <c r="F70" s="189"/>
-      <c r="G70" s="189"/>
-      <c r="H70" s="189"/>
-      <c r="I70" s="190"/>
+      <c r="D70" s="193" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="194"/>
+      <c r="F70" s="194"/>
+      <c r="G70" s="194"/>
+      <c r="H70" s="194"/>
+      <c r="I70" s="195"/>
       <c r="J70" s="59"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
@@ -5788,10 +5897,10 @@
       <c r="B72" s="173"/>
       <c r="C72" s="2"/>
       <c r="D72" s="177"/>
-      <c r="E72" s="159"/>
-      <c r="F72" s="159"/>
-      <c r="G72" s="159"/>
-      <c r="H72" s="159"/>
+      <c r="E72" s="160"/>
+      <c r="F72" s="160"/>
+      <c r="G72" s="160"/>
+      <c r="H72" s="160"/>
       <c r="I72" s="178"/>
       <c r="J72" s="59"/>
       <c r="K72" s="8"/>
@@ -5822,7 +5931,7 @@
       <c r="B74" s="173"/>
       <c r="C74" s="2"/>
       <c r="D74" s="71" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="E74" s="29"/>
       <c r="F74" s="29"/>
@@ -5830,7 +5939,7 @@
       <c r="H74" s="29"/>
       <c r="I74" s="72"/>
       <c r="J74" s="81" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="K74" s="79"/>
       <c r="L74" s="79"/>
@@ -5849,18 +5958,18 @@
       <c r="H75" s="175"/>
       <c r="I75" s="176"/>
       <c r="J75" s="58" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N75" s="12" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="O75" s="57" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P75" s="101"/>
     </row>
@@ -5885,7 +5994,7 @@
       <c r="B77" s="173"/>
       <c r="C77" s="2"/>
       <c r="D77" s="71" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
@@ -5970,10 +6079,10 @@
     </row>
     <row r="82" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D82" s="117" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="N82" s="109" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="O82" s="110"/>
       <c r="P82" s="101"/>
@@ -5983,80 +6092,80 @@
     </row>
     <row r="84" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D84" s="20" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="F84" s="22"/>
       <c r="H84" s="21" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="I84" s="22"/>
       <c r="K84" s="21" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="L84" s="22"/>
       <c r="N84" s="21" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="O84" s="22"/>
     </row>
     <row r="85" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="D86" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="E86" s="146"/>
-      <c r="F86" s="146"/>
-      <c r="G86" s="146"/>
-      <c r="H86" s="146"/>
-      <c r="I86" s="146"/>
-      <c r="J86" s="146"/>
-      <c r="K86" s="146"/>
-      <c r="L86" s="146"/>
-      <c r="M86" s="146"/>
-      <c r="N86" s="146"/>
-      <c r="O86" s="146"/>
+      <c r="D86" s="154" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" s="154"/>
+      <c r="F86" s="154"/>
+      <c r="G86" s="154"/>
+      <c r="H86" s="154"/>
+      <c r="I86" s="154"/>
+      <c r="J86" s="154"/>
+      <c r="K86" s="154"/>
+      <c r="L86" s="154"/>
+      <c r="M86" s="154"/>
+      <c r="N86" s="154"/>
+      <c r="O86" s="154"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D88" s="30" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D89" s="31" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D90" s="31" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D91" s="31" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D92" s="31" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D93" s="31" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D94" s="31" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D95" s="31" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
